--- a/data.xlsx
+++ b/data.xlsx
@@ -244,37 +244,37 @@
     <t xml:space="preserve">TCHA 23401265051</t>
   </si>
   <si>
+    <t xml:space="preserve">ทิกวนอิมกลิ่นคั่ว B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://down-th.img.susercontent.com/file/sg-11134201-22100-mg11lnu9tviv40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ทิกวนอิมกลิ่นสด A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://down-th.img.susercontent.com/file/sg-11134201-22100-cmbbzajauviv06</t>
+  </si>
+  <si>
     <t xml:space="preserve">ทิกวนอิมกลิ่นสด B</t>
   </si>
   <si>
-    <t xml:space="preserve">https://down-th.img.susercontent.com/file/sg-11134201-22100-mg11lnu9tviv40</t>
+    <t xml:space="preserve">https://down-th.img.susercontent.com/file/sg-11134201-22100-9qkixkabuviv07</t>
   </si>
   <si>
     <t xml:space="preserve">ทิกวนอิมกลิ่นสด C</t>
   </si>
   <si>
-    <t xml:space="preserve">https://down-th.img.susercontent.com/file/sg-11134201-22100-cmbbzajauviv06</t>
+    <t xml:space="preserve">https://down-th.img.susercontent.com/file/sg-11134201-22100-2c1ymqwbuviv1b</t>
   </si>
   <si>
     <t xml:space="preserve">ทิกวนอิมกลิ่นสด D</t>
   </si>
   <si>
-    <t xml:space="preserve">https://down-th.img.susercontent.com/file/sg-11134201-22100-9qkixkabuviv07</t>
+    <t xml:space="preserve">https://down-th.img.susercontent.com/file/sg-11134201-22100-2ohs7ybcuviva9</t>
   </si>
   <si>
     <t xml:space="preserve">ทิกวนอิมกลิ่นคั่ว A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://down-th.img.susercontent.com/file/sg-11134201-22100-2c1ymqwbuviv1b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ทิกวนอิมกลิ่นคั่ว B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://down-th.img.susercontent.com/file/sg-11134201-22100-2ohs7ybcuviva9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ทิกวนอิมกลิ่นสด A</t>
   </si>
   <si>
     <t xml:space="preserve">https://down-th.img.susercontent.com/file/sg-11134201-22100-i08ejsncuvivdc</t>
@@ -311,25 +311,25 @@
     <t xml:space="preserve">TCHA 23401533492</t>
   </si>
   <si>
+    <t xml:space="preserve">ต้าหงผาว 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://down-th.img.susercontent.com/file/sg-11134201-22100-qzpswqvspxiv30</t>
+  </si>
+  <si>
     <t xml:space="preserve">ต้าหงผาว 2</t>
   </si>
   <si>
-    <t xml:space="preserve">https://down-th.img.susercontent.com/file/sg-11134201-22100-qzpswqvspxiv30</t>
+    <t xml:space="preserve">https://down-th.img.susercontent.com/file/sg-11134201-22100-arohzcatpxivb2</t>
   </si>
   <si>
     <t xml:space="preserve">ต้าหงผาว 3</t>
   </si>
   <si>
-    <t xml:space="preserve">https://down-th.img.susercontent.com/file/sg-11134201-22100-arohzcatpxivb2</t>
+    <t xml:space="preserve">https://down-th.img.susercontent.com/file/sg-11134201-22100-c7u8oqrupxiv59</t>
   </si>
   <si>
     <t xml:space="preserve">ต้าหงผาว 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://down-th.img.susercontent.com/file/sg-11134201-22100-c7u8oqrupxiv59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ต้าหงผาว 1</t>
   </si>
   <si>
     <t xml:space="preserve">https://down-th.img.susercontent.com/file/sg-11134201-22100-5vpmqlnvpxivd6</t>
@@ -373,6 +373,15 @@
     <t xml:space="preserve">TCHA 18643163553</t>
   </si>
   <si>
+    <t xml:space="preserve">เงิน,เล็ก</t>
+  </si>
+  <si>
+    <t xml:space="preserve">เงิน,ใหญ่</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ดำ,เล็ก</t>
+  </si>
+  <si>
     <t xml:space="preserve">ดำ,ใหญ่</t>
   </si>
   <si>
@@ -386,15 +395,6 @@
   </si>
   <si>
     <t xml:space="preserve">ทองแดง,ใหญ่</t>
-  </si>
-  <si>
-    <t xml:space="preserve">เงิน,เล็ก</t>
-  </si>
-  <si>
-    <t xml:space="preserve">เงิน,ใหญ่</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ดำ,เล็ก</t>
   </si>
   <si>
     <t xml:space="preserve">TCHA | ชาเขียวหลงจิ่งชั้นดี 龙井 Longjing green tea</t>
@@ -438,19 +438,19 @@
     <t xml:space="preserve">TCHA 13985982756</t>
   </si>
   <si>
+    <t xml:space="preserve">A 50g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A 100g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B 50g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://down-th.img.susercontent.com/file/sg-11134201-22110-zd32p31vszjvab</t>
+  </si>
+  <si>
     <t xml:space="preserve">B 100g</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A 50g</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A 100g</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://down-th.img.susercontent.com/file/sg-11134201-22110-zd32p31vszjvab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B 50g</t>
   </si>
   <si>
     <t xml:space="preserve">https://down-th.img.susercontent.com/file/sg-11134201-22110-ild8696vszjv0d</t>
@@ -488,13 +488,13 @@
     <t xml:space="preserve">TCHA 20027526561</t>
   </si>
   <si>
+    <t xml:space="preserve">ชาผัดฤดูใบไม้ผลิ2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://down-th.img.susercontent.com/file/5511bff4d4dbebbdf2908c83d85f4a1e</t>
+  </si>
+  <si>
     <t xml:space="preserve">ชาผัด 10 ปี</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://down-th.img.susercontent.com/file/5511bff4d4dbebbdf2908c83d85f4a1e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ชาผัดฤดูใบไม้ผลิ2022</t>
   </si>
   <si>
     <t xml:space="preserve">https://down-th.img.susercontent.com/file/f48c4ff30dd0d01bafd2684269dfa195</t>
@@ -594,16 +594,16 @@
     <t xml:space="preserve">TCHA 21537604044</t>
   </si>
   <si>
+    <t xml:space="preserve">100g,ตานฉง 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100g,ตานฉง 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50g,ตานฉง 1</t>
+  </si>
+  <si>
     <t xml:space="preserve">50g,ตานฉง 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100g,ตานฉง 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100g,ตานฉง 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50g,ตานฉง 1</t>
   </si>
   <si>
     <t xml:space="preserve">[ลด 50% ใส่โค้ดDET50MAR] TCHA | รวมชาผูเอ่อร์สุกขนาดทดลอง 熟普洱 Ripe Puer Sample Size</t>
@@ -765,19 +765,19 @@
     <t xml:space="preserve">TCHA 18062720425</t>
   </si>
   <si>
+    <t xml:space="preserve">750 ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://down-th.img.susercontent.com/file/sg-11134201-22110-54rdntpjeyjva0</t>
+  </si>
+  <si>
     <t xml:space="preserve">1200 ml</t>
   </si>
   <si>
-    <t xml:space="preserve">https://down-th.img.susercontent.com/file/sg-11134201-22110-54rdntpjeyjva0</t>
+    <t xml:space="preserve">https://down-th.img.susercontent.com/file/sg-11134201-22110-8evu5aujeyjv37</t>
   </si>
   <si>
     <t xml:space="preserve">1800 ml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://down-th.img.susercontent.com/file/sg-11134201-22110-8evu5aujeyjv37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">750 ml</t>
   </si>
   <si>
     <t xml:space="preserve">https://down-th.img.susercontent.com/file/sg-11134201-22110-5zwat3xjeyjv27</t>
@@ -807,67 +807,67 @@
     <t xml:space="preserve">TCHA 16104494500</t>
   </si>
   <si>
+    <t xml:space="preserve">สีดำลายท้องฟ้า</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://down-th.img.susercontent.com/file/a5d3854a42c94e18f4fd533eac774dc8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">สีเขียวหยกทรงน้ำเต้า</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://down-th.img.susercontent.com/file/2191c23acf90dd64dc441ea4e49babba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">สีน้ำตาลไม้</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://down-th.img.susercontent.com/file/b928f97a9b7d526114beef52990dae3a</t>
+  </si>
+  <si>
     <t xml:space="preserve">สีเขียวหยกทรงแจกัน</t>
   </si>
   <si>
-    <t xml:space="preserve">https://down-th.img.susercontent.com/file/a5d3854a42c94e18f4fd533eac774dc8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">สีเขียวหยกทรงน้ำเต้า</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://down-th.img.susercontent.com/file/2191c23acf90dd64dc441ea4e49babba</t>
+    <t xml:space="preserve">https://down-th.img.susercontent.com/file/e3096b32ddfe8c3dde169f10cda8a099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">สีฟ้าด้านทรงแจกัน</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://down-th.img.susercontent.com/file/aa38f4bff954fa4d974f0dfc35527f9f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">สีเทาลายใบชา</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://down-th.img.susercontent.com/file/ca94dd6be680461759d41dfa446f073c</t>
   </si>
   <si>
     <t xml:space="preserve">สีฟ้าด้านทรงน้ำเต้า</t>
   </si>
   <si>
-    <t xml:space="preserve">https://down-th.img.susercontent.com/file/b928f97a9b7d526114beef52990dae3a</t>
+    <t xml:space="preserve">https://down-th.img.susercontent.com/file/94da3b35a39a385badb359e18244617d</t>
   </si>
   <si>
     <t xml:space="preserve">สีดำลายใบไม้</t>
   </si>
   <si>
-    <t xml:space="preserve">https://down-th.img.susercontent.com/file/e3096b32ddfe8c3dde169f10cda8a099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">สีเทาลายใบชา</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://down-th.img.susercontent.com/file/aa38f4bff954fa4d974f0dfc35527f9f</t>
+    <t xml:space="preserve">https://down-th.img.susercontent.com/file/9875e3525174ed42938d46a9ae157c0d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">สีน้ำตาล</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://down-th.img.susercontent.com/file/a715419657a68e2e5a7ec8462d3ece20</t>
   </si>
   <si>
     <t xml:space="preserve">สีฟ้าลายใบชา</t>
   </si>
   <si>
-    <t xml:space="preserve">https://down-th.img.susercontent.com/file/ca94dd6be680461759d41dfa446f073c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">สีดำลายท้องฟ้า</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://down-th.img.susercontent.com/file/94da3b35a39a385badb359e18244617d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">สีน้ำตาลไม้</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://down-th.img.susercontent.com/file/9875e3525174ed42938d46a9ae157c0d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">สีฟ้าด้านทรงแจกัน</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://down-th.img.susercontent.com/file/a715419657a68e2e5a7ec8462d3ece20</t>
+    <t xml:space="preserve">https://down-th.img.susercontent.com/file/c4c1c0e96f06389d4db897bf5526ace6</t>
   </si>
   <si>
     <t xml:space="preserve">สีน้ำเงิน</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://down-th.img.susercontent.com/file/c4c1c0e96f06389d4db897bf5526ace6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">สีน้ำตาล</t>
   </si>
   <si>
     <t xml:space="preserve">https://down-th.img.susercontent.com/file/2c70512ddbf182a07d246951f1aceeec</t>
@@ -932,13 +932,13 @@
     <t xml:space="preserve">TCHA 16088794551</t>
   </si>
   <si>
+    <t xml:space="preserve">อู่หลงใต้หวัน</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://down-th.img.susercontent.com/file/sg-11134201-22100-e6gv38h0lajvf6</t>
+  </si>
+  <si>
     <t xml:space="preserve">อู่หลงตานฉง</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://down-th.img.susercontent.com/file/sg-11134201-22100-e6gv38h0lajvf6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">อู่หลงใต้หวัน</t>
   </si>
   <si>
     <t xml:space="preserve">https://down-th.img.susercontent.com/file/sg-11134201-22100-qz0ni1k0lajvbf</t>
@@ -1058,49 +1058,49 @@
     <t xml:space="preserve">TCHA 12798337123</t>
   </si>
   <si>
+    <t xml:space="preserve">สีน้ำตาล + ต้าหงผาว4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://down-th.img.susercontent.com/file/th-11134207-23020-47d9p2i96tnv3f</t>
+  </si>
+  <si>
     <t xml:space="preserve">กาสีดำ + ต้าหงผาว1</t>
   </si>
   <si>
-    <t xml:space="preserve">https://down-th.img.susercontent.com/file/th-11134207-23020-47d9p2i96tnv3f</t>
+    <t xml:space="preserve">https://down-th.img.susercontent.com/file/th-11134207-23020-f19ct4o96tnv67</t>
   </si>
   <si>
     <t xml:space="preserve">กาสีดำ + ต้าหงผาว2</t>
   </si>
   <si>
-    <t xml:space="preserve">https://down-th.img.susercontent.com/file/th-11134207-23020-f19ct4o96tnv67</t>
+    <t xml:space="preserve">https://down-th.img.susercontent.com/file/th-11134207-23020-n7e1qkx96tnvab</t>
   </si>
   <si>
     <t xml:space="preserve">กาสีดำ + ต้าหงผาว3</t>
   </si>
   <si>
-    <t xml:space="preserve">https://down-th.img.susercontent.com/file/th-11134207-23020-n7e1qkx96tnvab</t>
+    <t xml:space="preserve">https://down-th.img.susercontent.com/file/th-11134207-23020-bp2sm6396tnve9</t>
   </si>
   <si>
     <t xml:space="preserve">กาสีดำ + ต้าหงผาว4</t>
   </si>
   <si>
-    <t xml:space="preserve">https://down-th.img.susercontent.com/file/th-11134207-23020-bp2sm6396tnve9</t>
+    <t xml:space="preserve">https://down-th.img.susercontent.com/file/th-11134207-23020-8hlwrma06tnv74</t>
   </si>
   <si>
     <t xml:space="preserve">สีน้ำตาล + ต้าหงผาว1</t>
   </si>
   <si>
-    <t xml:space="preserve">https://down-th.img.susercontent.com/file/th-11134207-23020-8hlwrma06tnv74</t>
+    <t xml:space="preserve">https://down-th.img.susercontent.com/file/th-11134207-23020-m4d5v7c06tnvfe</t>
   </si>
   <si>
     <t xml:space="preserve">สีน้ำตาล + ต้าหงผาว2</t>
   </si>
   <si>
-    <t xml:space="preserve">https://down-th.img.susercontent.com/file/th-11134207-23020-m4d5v7c06tnvfe</t>
+    <t xml:space="preserve">https://down-th.img.susercontent.com/file/th-11134207-23020-rl2i2ph06tnv19</t>
   </si>
   <si>
     <t xml:space="preserve">สีน้ำตาล + ต้าหงผาว3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://down-th.img.susercontent.com/file/th-11134207-23020-rl2i2ph06tnv19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">สีน้ำตาล + ต้าหงผาว4</t>
   </si>
   <si>
     <t xml:space="preserve">https://down-th.img.susercontent.com/file/th-11134207-23020-ig2zgsk06tnvd6</t>
@@ -1180,25 +1180,25 @@
     <t xml:space="preserve">TCHA 15580247215</t>
   </si>
   <si>
+    <t xml:space="preserve">ลายฝักบัว</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://down-th.img.susercontent.com/file/93580e47ade83d71c95bc682eb9c171a</t>
+  </si>
+  <si>
     <t xml:space="preserve">ลายคนพายเรือ</t>
   </si>
   <si>
-    <t xml:space="preserve">https://down-th.img.susercontent.com/file/93580e47ade83d71c95bc682eb9c171a</t>
+    <t xml:space="preserve">https://down-th.img.susercontent.com/file/59974981d1360544f35b7e65c17bad99</t>
   </si>
   <si>
     <t xml:space="preserve">ลายดอกบัวสีชมพู</t>
   </si>
   <si>
-    <t xml:space="preserve">https://down-th.img.susercontent.com/file/59974981d1360544f35b7e65c17bad99</t>
+    <t xml:space="preserve">https://down-th.img.susercontent.com/file/40e24ce16cd3356775b1eeea0e49ff89</t>
   </si>
   <si>
     <t xml:space="preserve">ลายดอกบัวสีน้ำเงิน</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://down-th.img.susercontent.com/file/40e24ce16cd3356775b1eeea0e49ff89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ลายฝักบัว</t>
   </si>
   <si>
     <t xml:space="preserve">TCHA | ชาขาวเข็มเงินคุณภาพพรีเมียม ฤดูใบไม้ผลิ 2022 白毫银针 春茶 Premium Silver Needle White Tea Spring Season 2022</t>
@@ -1267,10 +1267,10 @@
     <t xml:space="preserve">TCHA 20524170677</t>
   </si>
   <si>
+    <t xml:space="preserve">แปรงแบน</t>
+  </si>
+  <si>
     <t xml:space="preserve">แปรงกลม</t>
-  </si>
-  <si>
-    <t xml:space="preserve">แปรงแบน</t>
   </si>
   <si>
     <t xml:space="preserve">TCHA | ชาสุ่ยเซียนจ้างผิงอัดก้อน 水仙漳平 Shui Xian Zhangping Oolong Tea</t>
@@ -1378,19 +1378,19 @@
     <t xml:space="preserve">TCHA 19005568478</t>
   </si>
   <si>
+    <t xml:space="preserve">ขนาดใหญ่</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://down-th.img.susercontent.com/file/sg-11134201-22110-1p82y0cctzjv0d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ขนาดเล็ก</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://down-th.img.susercontent.com/file/30c55e597e812b2b9ccf63b30093f4c3</t>
+  </si>
+  <si>
     <t xml:space="preserve">ขนาดกลาง</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://down-th.img.susercontent.com/file/sg-11134201-22110-1p82y0cctzjv0d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ขนาดใหญ่</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://down-th.img.susercontent.com/file/30c55e597e812b2b9ccf63b30093f4c3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ขนาดเล็ก</t>
   </si>
   <si>
     <t xml:space="preserve">https://down-th.img.susercontent.com/file/sg-11134201-22110-srz7zf8dtzjvdb</t>
@@ -1439,49 +1439,49 @@
     <t xml:space="preserve">TCHA 18070167608</t>
   </si>
   <si>
+    <t xml:space="preserve">เซ็ตของขวัญสีเขียว</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://down-th.img.susercontent.com/file/sg-11134201-22120-kf2f5m59hplv08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">เซ็ตของขวัญทรงคณโฑ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://down-th.img.susercontent.com/file/sg-11134201-22120-icz4ca99hplv49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">เซ็ตของขวัญลูกพลับ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://down-th.img.susercontent.com/file/sg-11134201-22120-cl5v56a0hplve5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">เซ็ตของขวัญโหลบัว</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://down-th.img.susercontent.com/file/sg-11134201-22120-gplqf40ciplvd2</t>
+  </si>
+  <si>
     <t xml:space="preserve">กล่องของขวัญชาแผ่น 1</t>
   </si>
   <si>
-    <t xml:space="preserve">https://down-th.img.susercontent.com/file/sg-11134201-22120-kf2f5m59hplv08</t>
+    <t xml:space="preserve">https://down-th.img.susercontent.com/file/sg-11134201-22120-utsvrzu0hplv3e</t>
   </si>
   <si>
     <t xml:space="preserve">กล่องของขวัญชาแผ่น 2</t>
   </si>
   <si>
-    <t xml:space="preserve">https://down-th.img.susercontent.com/file/sg-11134201-22120-icz4ca99hplv49</t>
+    <t xml:space="preserve">https://down-th.img.susercontent.com/file/sg-11134201-22120-ttmyf2y0hplv11</t>
   </si>
   <si>
     <t xml:space="preserve">เซ็ตของขวัญชาแผ่น 3</t>
   </si>
   <si>
-    <t xml:space="preserve">https://down-th.img.susercontent.com/file/sg-11134201-22120-cl5v56a0hplve5</t>
+    <t xml:space="preserve">https://down-th.img.susercontent.com/file/sg-11134201-22120-s3j8xy30hplvc5</t>
   </si>
   <si>
     <t xml:space="preserve">กล่องของขวัญชาแผ่น 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://down-th.img.susercontent.com/file/sg-11134201-22120-gplqf40ciplvd2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">เซ็ตของขวัญสีเขียว</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://down-th.img.susercontent.com/file/sg-11134201-22120-utsvrzu0hplv3e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">เซ็ตของขวัญทรงคณโฑ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://down-th.img.susercontent.com/file/sg-11134201-22120-ttmyf2y0hplv11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">เซ็ตของขวัญลูกพลับ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://down-th.img.susercontent.com/file/sg-11134201-22120-s3j8xy30hplvc5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">เซ็ตของขวัญโหลบัว</t>
   </si>
   <si>
     <t xml:space="preserve">https://down-th.img.susercontent.com/file/sg-11134201-22120-uhb77590hplv0d</t>
@@ -1519,34 +1519,34 @@
     <t xml:space="preserve">TCHA 20132684067</t>
   </si>
   <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://down-th.img.susercontent.com/file/aced22508eec7db1bdd63d48539db199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
     <t xml:space="preserve">8</t>
   </si>
   <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
     <t xml:space="preserve">2</t>
   </si>
   <si>
-    <t xml:space="preserve">7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://down-th.img.susercontent.com/file/aced22508eec7db1bdd63d48539db199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6</t>
-  </si>
-  <si>
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
     <t xml:space="preserve">9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
   </si>
   <si>
     <t xml:space="preserve">https://down-th.img.susercontent.com/file/bd0b26a85335302366612e658bd3f35d</t>
@@ -1588,16 +1588,16 @@
     <t xml:space="preserve">TCHA 21840520866</t>
   </si>
   <si>
+    <t xml:space="preserve">40*30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50*35</t>
+  </si>
+  <si>
     <t xml:space="preserve">55*40</t>
   </si>
   <si>
     <t xml:space="preserve">60*40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40*30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50*35</t>
   </si>
   <si>
     <t xml:space="preserve">https://down-th.img.susercontent.com/file/d45174239cb97c4690f96e322bfd0465</t>
@@ -1647,19 +1647,19 @@
     <t xml:space="preserve">TCHA 12075356149</t>
   </si>
   <si>
+    <t xml:space="preserve">สีน้ำตาลเข้มตัวยาว</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://down-th.img.susercontent.com/file/2b2352f5cb0d10a4e300efe7ae957763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">สีน้ำตาลแดงตัวสั้น</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://down-th.img.susercontent.com/file/a6e7ae9a322c2b41824f2ef68913060c</t>
+  </si>
+  <si>
     <t xml:space="preserve">สีน้ำตาลเข้มตัวสั้น</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://down-th.img.susercontent.com/file/2b2352f5cb0d10a4e300efe7ae957763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">สีน้ำตาลเข้มตัวยาว</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://down-th.img.susercontent.com/file/a6e7ae9a322c2b41824f2ef68913060c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">สีน้ำตาลแดงตัวสั้น</t>
   </si>
   <si>
     <t xml:space="preserve">https://down-th.img.susercontent.com/file/0b6c8f168612c1102014057aed7d4325</t>
@@ -1749,19 +1749,19 @@
     <t xml:space="preserve">TCHA 18657548630</t>
   </si>
   <si>
+    <t xml:space="preserve">ใหญ่ L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://down-th.img.susercontent.com/file/sg-11134201-22100-mshupvqxi4ivbd</t>
+  </si>
+  <si>
     <t xml:space="preserve">เล็ก S</t>
   </si>
   <si>
-    <t xml:space="preserve">https://down-th.img.susercontent.com/file/sg-11134201-22100-mshupvqxi4ivbd</t>
+    <t xml:space="preserve">https://down-th.img.susercontent.com/file/sg-11134201-22100-tynl3qvxi4ivcc</t>
   </si>
   <si>
     <t xml:space="preserve">กลาง M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://down-th.img.susercontent.com/file/sg-11134201-22100-tynl3qvxi4ivcc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ใหญ่ L</t>
   </si>
   <si>
     <t xml:space="preserve">https://down-th.img.susercontent.com/file/sg-11134201-22100-wpfkivzxi4iv03</t>
@@ -1787,6 +1787,9 @@
     <t xml:space="preserve">TCHA 21627527501</t>
   </si>
   <si>
+    <t xml:space="preserve">ชาผัด 20 ปี,50g.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ชาผัด 20 ปี,100g.</t>
   </si>
   <si>
@@ -1794,9 +1797,6 @@
   </si>
   <si>
     <t xml:space="preserve">ชาผัดใบชาคุณภาพสูง,100g.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ชาผัด 20 ปี,50g.</t>
   </si>
   <si>
     <t xml:space="preserve">TCHA | เซ็ตของขวัญใส่ชา ใบชา ชาอู่หลง 茶叶礼盒 Tea Gift Set</t>
@@ -1842,55 +1842,55 @@
     <t xml:space="preserve">TCHA 20770167622</t>
   </si>
   <si>
+    <t xml:space="preserve">เซ็ตถ้ำชาภูเขากลาง 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://down-th.img.susercontent.com/file/sg-11134201-22120-0ho99odejplv8f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">เซ็ตถ้ำชาภูเขากลาง 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://down-th.img.susercontent.com/file/sg-11134201-22120-24f3wjgejplv9e</t>
+  </si>
+  <si>
     <t xml:space="preserve">เซ็ตของขวัญสีแดง</t>
   </si>
   <si>
-    <t xml:space="preserve">https://down-th.img.susercontent.com/file/sg-11134201-22120-0ho99odejplv8f</t>
+    <t xml:space="preserve">https://down-th.img.susercontent.com/file/sg-11134201-22120-76kvyfjejplv37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">เซ็ตของขวัญสีฟ้า</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://down-th.img.susercontent.com/file/sg-11134201-22120-wu36mooejplv05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">เซ็ตกล่องใส่ชาตานฉง</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://down-th.img.susercontent.com/file/sg-11134201-22120-9dsirwtejplv1a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">เซ็ตถ้ำชาภูเขาเล็ก</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://down-th.img.susercontent.com/file/sg-11134201-22120-ogoqxvxejplv53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">เซ็ตกล่องชาทิกวนอิม</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://down-th.img.susercontent.com/file/sg-11134201-22120-60coic2ejplv29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">เซ็ตถ้ำชาดอกบัวใหญ่</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://down-th.img.susercontent.com/file/sg-11134201-22120-7mb45h7ejplva1</t>
   </si>
   <si>
     <t xml:space="preserve">เซ็ตของขวัญสีม่วง</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://down-th.img.susercontent.com/file/sg-11134201-22120-24f3wjgejplv9e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">เซ็ตถ้ำชาภูเขาเล็ก</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://down-th.img.susercontent.com/file/sg-11134201-22120-76kvyfjejplv37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">เซ็ตถ้ำชาภูเขากลาง 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://down-th.img.susercontent.com/file/sg-11134201-22120-wu36mooejplv05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">เซ็ตของขวัญสีฟ้า</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://down-th.img.susercontent.com/file/sg-11134201-22120-9dsirwtejplv1a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">เซ็ตถ้ำชาภูเขากลาง 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://down-th.img.susercontent.com/file/sg-11134201-22120-ogoqxvxejplv53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">เซ็ตกล่องชาทิกวนอิม</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://down-th.img.susercontent.com/file/sg-11134201-22120-60coic2ejplv29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">เซ็ตถ้ำชาดอกบัวใหญ่</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://down-th.img.susercontent.com/file/sg-11134201-22120-7mb45h7ejplva1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">เซ็ตกล่องใส่ชาตานฉง</t>
   </si>
   <si>
     <t xml:space="preserve">https://down-th.img.susercontent.com/file/sg-11134201-22120-j7lnv80ejplv21</t>
@@ -2048,19 +2048,19 @@
     <t xml:space="preserve">TCHA 21175449652</t>
   </si>
   <si>
+    <t xml:space="preserve">แบบที่1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://down-th.img.susercontent.com/file/th-11134207-23030-oy9df2in8dovcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">แบบที่ 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://down-th.img.susercontent.com/file/th-11134207-23030-stfncnnn8dova7</t>
+  </si>
+  <si>
     <t xml:space="preserve">แบบที่ 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://down-th.img.susercontent.com/file/th-11134207-23030-oy9df2in8dovcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">แบบที่1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://down-th.img.susercontent.com/file/th-11134207-23030-stfncnnn8dova7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">แบบที่ 2</t>
   </si>
   <si>
     <t xml:space="preserve">https://down-th.img.susercontent.com/file/th-11134207-23030-oywsupvn8dov58</t>
@@ -2268,10 +2268,10 @@
     <t xml:space="preserve">TCHA 17425988505</t>
   </si>
   <si>
+    <t xml:space="preserve">ชาแดงศรีลังกา 100g.,แอ๊ปเปิ้ลอบแห้ง</t>
+  </si>
+  <si>
     <t xml:space="preserve">ชาแดงศรีลังกา 100g.,สตรอว์เบอร์รี่อบแห้ง</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ชาแดงศรีลังกา 100g.,แอ๊ปเปิ้ลอบแห้ง</t>
   </si>
   <si>
     <t xml:space="preserve">TCHA | เซ็ตของขวัญกาชงชา 茶具 Tea Pot Set 9 ชิ้น พร้อมกระเป๋า</t>
@@ -2314,13 +2314,13 @@
     <t xml:space="preserve">TCHA 20320147994</t>
   </si>
   <si>
+    <t xml:space="preserve">ชุดกระเป๋าสีแดง</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://down-th.img.susercontent.com/file/3914ab3cdc60a85e5939c31563f046df</t>
+  </si>
+  <si>
     <t xml:space="preserve">ชุดกระเป๋าสีเลือดหมู</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://down-th.img.susercontent.com/file/3914ab3cdc60a85e5939c31563f046df</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ชุดกระเป๋าสีแดง</t>
   </si>
   <si>
     <t xml:space="preserve">https://down-th.img.susercontent.com/file/7c14ef2e2c2a33a8b69da3bf25aba93d</t>
@@ -2393,10 +2393,10 @@
     <t xml:space="preserve">TCHA 20337995721</t>
   </si>
   <si>
+    <t xml:space="preserve">ลายทอง</t>
+  </si>
+  <si>
     <t xml:space="preserve">สีล้วน</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ลายทอง</t>
   </si>
   <si>
     <t xml:space="preserve">TCHA | เซ็ตของขวัญกาชงชา 茶具 Tea Pot Set</t>
@@ -2472,16 +2472,16 @@
     <t xml:space="preserve">TCHA 21814814302</t>
   </si>
   <si>
+    <t xml:space="preserve">บรรจุชาแผ่น 15 แผ่น</t>
+  </si>
+  <si>
     <t xml:space="preserve">บรรจุชาแผ่น 45 แผ่น</t>
   </si>
   <si>
+    <t xml:space="preserve">https://down-th.img.susercontent.com/file/f9d8029502660c75f8294e8618146b99</t>
+  </si>
+  <si>
     <t xml:space="preserve">บรรจุชาแผ่น 36 แผ่น</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://down-th.img.susercontent.com/file/f9d8029502660c75f8294e8618146b99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">บรรจุชาแผ่น 15 แผ่น</t>
   </si>
   <si>
     <t xml:space="preserve">https://down-th.img.susercontent.com/file/1340224d99e916ed1df1e4ef70ef5c3f</t>
@@ -2715,7 +2715,7 @@
         <v>50</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>890.0</v>
+        <v>89.0</v>
       </c>
       <c r="L2" s="0" t="n">
         <v>10</v>
@@ -2733,19 +2733,19 @@
         <v>50</v>
       </c>
       <c r="Q2" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="R2" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="R2" s="0" t="s">
+      <c r="S2" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="S2" s="0" t="s">
+      <c r="T2" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="T2" s="0" t="s">
+      <c r="U2" s="0" t="s">
         <v>56</v>
-      </c>
-      <c r="U2" s="0" t="s">
-        <v>42</v>
       </c>
       <c r="V2" s="0" t="s">
         <v>42</v>
@@ -2753,6 +2753,9 @@
       <c r="W2" s="0" t="s">
         <v>42</v>
       </c>
+      <c r="X2" s="0" t="s">
+        <v>42</v>
+      </c>
       <c r="Y2" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -2789,7 +2792,7 @@
         <v>54</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>890.0</v>
+        <v>89.0</v>
       </c>
       <c r="L3" s="0" t="n">
         <v>10</v>
@@ -2803,6 +2806,9 @@
       <c r="O3" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P3" s="0" t="s">
+        <v>54</v>
+      </c>
       <c r="Y3" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -2839,7 +2845,7 @@
         <v>56</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>890.0</v>
+        <v>89.0</v>
       </c>
       <c r="L4" s="0" t="n">
         <v>10</v>
@@ -2853,6 +2859,9 @@
       <c r="O4" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P4" s="0" t="s">
+        <v>56</v>
+      </c>
       <c r="Y4" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -2880,7 +2889,7 @@
         <v>65</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>290.0</v>
+        <v>29.0</v>
       </c>
       <c r="L5" s="0" t="n">
         <v>10</v>
@@ -2898,10 +2907,10 @@
         <v>65</v>
       </c>
       <c r="Q5" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="R5" s="0" t="s">
         <v>66</v>
-      </c>
-      <c r="R5" s="0" t="s">
-        <v>42</v>
       </c>
       <c r="S5" s="0" t="s">
         <v>42</v>
@@ -2918,6 +2927,9 @@
       <c r="W5" s="0" t="s">
         <v>42</v>
       </c>
+      <c r="X5" s="0" t="s">
+        <v>42</v>
+      </c>
       <c r="Y5" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -2954,7 +2966,7 @@
         <v>69</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>750.0</v>
+        <v>49.0</v>
       </c>
       <c r="L6" s="0" t="n">
         <v>10</v>
@@ -2968,6 +2980,9 @@
       <c r="O6" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P6" s="0" t="s">
+        <v>69</v>
+      </c>
       <c r="Y6" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -3004,7 +3019,7 @@
         <v>71</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>1120.0</v>
+        <v>33.0</v>
       </c>
       <c r="L7" s="0" t="n">
         <v>10</v>
@@ -3018,6 +3033,9 @@
       <c r="O7" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P7" s="0" t="s">
+        <v>71</v>
+      </c>
       <c r="Y7" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -3054,7 +3072,7 @@
         <v>73</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>1450.0</v>
+        <v>75.0</v>
       </c>
       <c r="L8" s="0" t="n">
         <v>10</v>
@@ -3068,6 +3086,9 @@
       <c r="O8" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P8" s="0" t="s">
+        <v>73</v>
+      </c>
       <c r="Y8" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -3104,7 +3125,7 @@
         <v>75</v>
       </c>
       <c r="K9" s="0" t="n">
-        <v>290.0</v>
+        <v>112.0</v>
       </c>
       <c r="L9" s="0" t="n">
         <v>10</v>
@@ -3118,6 +3139,9 @@
       <c r="O9" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P9" s="0" t="s">
+        <v>75</v>
+      </c>
       <c r="Y9" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -3154,7 +3178,7 @@
         <v>77</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>490.0</v>
+        <v>145.0</v>
       </c>
       <c r="L10" s="0" t="n">
         <v>10</v>
@@ -3168,6 +3192,9 @@
       <c r="O10" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P10" s="0" t="s">
+        <v>77</v>
+      </c>
       <c r="Y10" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -3204,7 +3231,7 @@
         <v>79</v>
       </c>
       <c r="K11" s="0" t="n">
-        <v>330.0</v>
+        <v>29.0</v>
       </c>
       <c r="L11" s="0" t="n">
         <v>10</v>
@@ -3218,6 +3245,9 @@
       <c r="O11" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P11" s="0" t="s">
+        <v>79</v>
+      </c>
       <c r="Y11" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -3245,7 +3275,7 @@
         <v>82</v>
       </c>
       <c r="K12" s="0" t="n">
-        <v>290.0</v>
+        <v>29.0</v>
       </c>
       <c r="L12" s="0" t="n">
         <v>10</v>
@@ -3263,16 +3293,16 @@
         <v>82</v>
       </c>
       <c r="Q12" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="R12" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="R12" s="0" t="s">
+      <c r="S12" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="S12" s="0" t="s">
+      <c r="T12" s="0" t="s">
         <v>85</v>
-      </c>
-      <c r="T12" s="0" t="s">
-        <v>42</v>
       </c>
       <c r="U12" s="0" t="s">
         <v>42</v>
@@ -3283,6 +3313,9 @@
       <c r="W12" s="0" t="s">
         <v>42</v>
       </c>
+      <c r="X12" s="0" t="s">
+        <v>42</v>
+      </c>
       <c r="Y12" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -3319,7 +3352,7 @@
         <v>88</v>
       </c>
       <c r="K13" s="0" t="n">
-        <v>290.0</v>
+        <v>29.0</v>
       </c>
       <c r="L13" s="0" t="n">
         <v>10</v>
@@ -3333,6 +3366,9 @@
       <c r="O13" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P13" s="0" t="s">
+        <v>88</v>
+      </c>
       <c r="Y13" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -3369,7 +3405,7 @@
         <v>90</v>
       </c>
       <c r="K14" s="0" t="n">
-        <v>410.0</v>
+        <v>29.0</v>
       </c>
       <c r="L14" s="0" t="n">
         <v>10</v>
@@ -3383,6 +3419,9 @@
       <c r="O14" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P14" s="0" t="s">
+        <v>90</v>
+      </c>
       <c r="Y14" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -3419,7 +3458,7 @@
         <v>92</v>
       </c>
       <c r="K15" s="0" t="n">
-        <v>590.0</v>
+        <v>41.0</v>
       </c>
       <c r="L15" s="0" t="n">
         <v>10</v>
@@ -3433,6 +3472,9 @@
       <c r="O15" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P15" s="0" t="s">
+        <v>92</v>
+      </c>
       <c r="Y15" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -3469,7 +3511,7 @@
         <v>94</v>
       </c>
       <c r="K16" s="0" t="n">
-        <v>290.0</v>
+        <v>59.0</v>
       </c>
       <c r="L16" s="0" t="n">
         <v>10</v>
@@ -3483,6 +3525,9 @@
       <c r="O16" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P16" s="0" t="s">
+        <v>94</v>
+      </c>
       <c r="Y16" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -3510,7 +3555,7 @@
         <v>97</v>
       </c>
       <c r="K17" s="0" t="n">
-        <v>2.0e3</v>
+        <v>200.0</v>
       </c>
       <c r="L17" s="0" t="n">
         <v>10</v>
@@ -3528,24 +3573,27 @@
         <v>97</v>
       </c>
       <c r="Q17" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="R17" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="R17" s="0" t="s">
+      <c r="S17" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="S17" s="0" t="s">
+      <c r="T17" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="T17" s="0" t="s">
+      <c r="U17" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="U17" s="0" t="s">
+      <c r="V17" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="V17" s="0" t="s">
+      <c r="W17" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="W17" s="0" t="s">
+      <c r="X17" s="0" t="s">
         <v>104</v>
       </c>
       <c r="Y17" s="0" t="n">
@@ -3584,7 +3632,7 @@
         <v>102</v>
       </c>
       <c r="K18" s="0" t="n">
-        <v>3.0e3</v>
+        <v>200.0</v>
       </c>
       <c r="L18" s="0" t="n">
         <v>10</v>
@@ -3598,6 +3646,9 @@
       <c r="O18" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P18" s="0" t="s">
+        <v>102</v>
+      </c>
       <c r="Y18" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -3634,7 +3685,7 @@
         <v>99</v>
       </c>
       <c r="K19" s="0" t="n">
-        <v>2.0e3</v>
+        <v>300.0</v>
       </c>
       <c r="L19" s="0" t="n">
         <v>10</v>
@@ -3648,6 +3699,9 @@
       <c r="O19" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P19" s="0" t="s">
+        <v>99</v>
+      </c>
       <c r="Y19" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -3684,7 +3738,7 @@
         <v>100</v>
       </c>
       <c r="K20" s="0" t="n">
-        <v>3.0e3</v>
+        <v>200.0</v>
       </c>
       <c r="L20" s="0" t="n">
         <v>10</v>
@@ -3698,6 +3752,9 @@
       <c r="O20" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P20" s="0" t="s">
+        <v>100</v>
+      </c>
       <c r="Y20" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -3734,7 +3791,7 @@
         <v>101</v>
       </c>
       <c r="K21" s="0" t="n">
-        <v>2.0e3</v>
+        <v>300.0</v>
       </c>
       <c r="L21" s="0" t="n">
         <v>10</v>
@@ -3748,6 +3805,9 @@
       <c r="O21" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P21" s="0" t="s">
+        <v>101</v>
+      </c>
       <c r="Y21" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -3784,7 +3844,7 @@
         <v>42</v>
       </c>
       <c r="K22" s="0" t="n">
-        <v>3.0e3</v>
+        <v>200.0</v>
       </c>
       <c r="L22" s="0" t="n">
         <v>10</v>
@@ -3798,6 +3858,9 @@
       <c r="O22" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P22" s="0" t="s">
+        <v>42</v>
+      </c>
       <c r="Y22" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -3834,7 +3897,7 @@
         <v>42</v>
       </c>
       <c r="K23" s="0" t="n">
-        <v>2.0e3</v>
+        <v>300.0</v>
       </c>
       <c r="L23" s="0" t="n">
         <v>10</v>
@@ -3848,6 +3911,9 @@
       <c r="O23" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P23" s="0" t="s">
+        <v>42</v>
+      </c>
       <c r="Y23" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -3884,7 +3950,7 @@
         <v>42</v>
       </c>
       <c r="K24" s="0" t="n">
-        <v>3.0e3</v>
+        <v>200.0</v>
       </c>
       <c r="L24" s="0" t="n">
         <v>10</v>
@@ -3898,6 +3964,9 @@
       <c r="O24" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P24" s="0" t="s">
+        <v>42</v>
+      </c>
       <c r="Y24" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -3934,7 +4003,7 @@
         <v>42</v>
       </c>
       <c r="K25" s="0" t="n">
-        <v>2.0e3</v>
+        <v>300.0</v>
       </c>
       <c r="L25" s="0" t="n">
         <v>10</v>
@@ -3948,6 +4017,9 @@
       <c r="O25" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P25" s="0" t="s">
+        <v>42</v>
+      </c>
       <c r="Y25" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -3975,7 +4047,7 @@
         <v>116</v>
       </c>
       <c r="K26" s="0" t="n">
-        <v>7.5e3</v>
+        <v>750.0</v>
       </c>
       <c r="L26" s="0" t="n">
         <v>10</v>
@@ -3993,26 +4065,29 @@
         <v>116</v>
       </c>
       <c r="Q26" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="R26" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="R26" s="0" t="s">
+      <c r="S26" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="S26" s="0" t="s">
+      <c r="T26" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="T26" s="0" t="s">
+      <c r="U26" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="U26" s="0" t="s">
+      <c r="V26" s="0" t="s">
         <v>121</v>
-      </c>
-      <c r="V26" s="0" t="s">
-        <v>42</v>
       </c>
       <c r="W26" s="0" t="s">
         <v>42</v>
       </c>
+      <c r="X26" s="0" t="s">
+        <v>42</v>
+      </c>
       <c r="Y26" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -4049,7 +4124,7 @@
         <v>117</v>
       </c>
       <c r="K27" s="0" t="n">
-        <v>1.5e4</v>
+        <v>1.5e3</v>
       </c>
       <c r="L27" s="0" t="n">
         <v>10</v>
@@ -4063,6 +4138,9 @@
       <c r="O27" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P27" s="0" t="s">
+        <v>117</v>
+      </c>
       <c r="Y27" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -4099,7 +4177,7 @@
         <v>116</v>
       </c>
       <c r="K28" s="0" t="n">
-        <v>1.5e4</v>
+        <v>3.0e3</v>
       </c>
       <c r="L28" s="0" t="n">
         <v>10</v>
@@ -4113,6 +4191,9 @@
       <c r="O28" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P28" s="0" t="s">
+        <v>116</v>
+      </c>
       <c r="Y28" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -4149,7 +4230,7 @@
         <v>126</v>
       </c>
       <c r="K29" s="0" t="n">
-        <v>3.0e4</v>
+        <v>750.0</v>
       </c>
       <c r="L29" s="0" t="n">
         <v>10</v>
@@ -4163,6 +4244,9 @@
       <c r="O29" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P29" s="0" t="s">
+        <v>126</v>
+      </c>
       <c r="Y29" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -4199,7 +4283,7 @@
         <v>128</v>
       </c>
       <c r="K30" s="0" t="n">
-        <v>7.5e3</v>
+        <v>1.5e3</v>
       </c>
       <c r="L30" s="0" t="n">
         <v>10</v>
@@ -4213,6 +4297,9 @@
       <c r="O30" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P30" s="0" t="s">
+        <v>128</v>
+      </c>
       <c r="Y30" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -4240,7 +4327,7 @@
         <v>131</v>
       </c>
       <c r="K31" s="0" t="n">
-        <v>1.8e3</v>
+        <v>180.0</v>
       </c>
       <c r="L31" s="0" t="n">
         <v>10</v>
@@ -4258,16 +4345,16 @@
         <v>131</v>
       </c>
       <c r="Q31" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="R31" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="R31" s="0" t="s">
+      <c r="S31" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="S31" s="0" t="s">
+      <c r="T31" s="0" t="s">
         <v>134</v>
-      </c>
-      <c r="T31" s="0" t="s">
-        <v>42</v>
       </c>
       <c r="U31" s="0" t="s">
         <v>42</v>
@@ -4278,6 +4365,9 @@
       <c r="W31" s="0" t="s">
         <v>42</v>
       </c>
+      <c r="X31" s="0" t="s">
+        <v>42</v>
+      </c>
       <c r="Y31" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -4314,7 +4404,7 @@
         <v>137</v>
       </c>
       <c r="K32" s="0" t="n">
-        <v>1.8e3</v>
+        <v>300.0</v>
       </c>
       <c r="L32" s="0" t="n">
         <v>10</v>
@@ -4328,6 +4418,9 @@
       <c r="O32" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P32" s="0" t="s">
+        <v>137</v>
+      </c>
       <c r="Y32" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -4364,7 +4457,7 @@
         <v>139</v>
       </c>
       <c r="K33" s="0" t="n">
-        <v>3.0e3</v>
+        <v>180.0</v>
       </c>
       <c r="L33" s="0" t="n">
         <v>10</v>
@@ -4378,6 +4471,9 @@
       <c r="O33" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P33" s="0" t="s">
+        <v>139</v>
+      </c>
       <c r="Y33" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -4405,7 +4501,7 @@
         <v>142</v>
       </c>
       <c r="K34" s="0" t="n">
-        <v>9.8e3</v>
+        <v>980.0</v>
       </c>
       <c r="L34" s="0" t="n">
         <v>10</v>
@@ -4423,24 +4519,27 @@
         <v>142</v>
       </c>
       <c r="Q34" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="R34" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="R34" s="0" t="s">
+      <c r="S34" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="S34" s="0" t="s">
+      <c r="T34" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="T34" s="0" t="s">
+      <c r="U34" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="U34" s="0" t="s">
+      <c r="V34" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="V34" s="0" t="s">
+      <c r="W34" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="W34" s="0" t="s">
+      <c r="X34" s="0" t="s">
         <v>149</v>
       </c>
       <c r="Y34" s="0" t="n">
@@ -4479,7 +4578,7 @@
         <v>152</v>
       </c>
       <c r="K35" s="0" t="n">
-        <v>9.8e3</v>
+        <v>980.0</v>
       </c>
       <c r="L35" s="0" t="n">
         <v>10</v>
@@ -4493,6 +4592,9 @@
       <c r="O35" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P35" s="0" t="s">
+        <v>152</v>
+      </c>
       <c r="Y35" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -4529,7 +4631,7 @@
         <v>154</v>
       </c>
       <c r="K36" s="0" t="n">
-        <v>9.8e3</v>
+        <v>980.0</v>
       </c>
       <c r="L36" s="0" t="n">
         <v>10</v>
@@ -4543,6 +4645,9 @@
       <c r="O36" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P36" s="0" t="s">
+        <v>154</v>
+      </c>
       <c r="Y36" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -4579,7 +4684,7 @@
         <v>156</v>
       </c>
       <c r="K37" s="0" t="n">
-        <v>9.8e3</v>
+        <v>980.0</v>
       </c>
       <c r="L37" s="0" t="n">
         <v>10</v>
@@ -4593,6 +4698,9 @@
       <c r="O37" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P37" s="0" t="s">
+        <v>156</v>
+      </c>
       <c r="Y37" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -4620,7 +4728,7 @@
         <v>159</v>
       </c>
       <c r="K38" s="0" t="n">
-        <v>2.4e3</v>
+        <v>240.0</v>
       </c>
       <c r="L38" s="0" t="n">
         <v>10</v>
@@ -4638,19 +4746,19 @@
         <v>159</v>
       </c>
       <c r="Q38" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="R38" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="R38" s="0" t="s">
+      <c r="S38" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="S38" s="0" t="s">
+      <c r="T38" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="T38" s="0" t="s">
+      <c r="U38" s="0" t="s">
         <v>163</v>
-      </c>
-      <c r="U38" s="0" t="s">
-        <v>42</v>
       </c>
       <c r="V38" s="0" t="s">
         <v>42</v>
@@ -4658,6 +4766,9 @@
       <c r="W38" s="0" t="s">
         <v>42</v>
       </c>
+      <c r="X38" s="0" t="s">
+        <v>42</v>
+      </c>
       <c r="Y38" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -4694,7 +4805,7 @@
         <v>162</v>
       </c>
       <c r="K39" s="0" t="n">
-        <v>6.0e3</v>
+        <v>480.0</v>
       </c>
       <c r="L39" s="0" t="n">
         <v>10</v>
@@ -4708,6 +4819,9 @@
       <c r="O39" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P39" s="0" t="s">
+        <v>162</v>
+      </c>
       <c r="Y39" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -4744,7 +4858,7 @@
         <v>163</v>
       </c>
       <c r="K40" s="0" t="n">
-        <v>4.8e3</v>
+        <v>1.2e3</v>
       </c>
       <c r="L40" s="0" t="n">
         <v>10</v>
@@ -4758,6 +4872,9 @@
       <c r="O40" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P40" s="0" t="s">
+        <v>163</v>
+      </c>
       <c r="Y40" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -4794,7 +4911,7 @@
         <v>42</v>
       </c>
       <c r="K41" s="0" t="n">
-        <v>1.2e4</v>
+        <v>240.0</v>
       </c>
       <c r="L41" s="0" t="n">
         <v>10</v>
@@ -4808,6 +4925,9 @@
       <c r="O41" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P41" s="0" t="s">
+        <v>42</v>
+      </c>
       <c r="Y41" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -4844,7 +4964,7 @@
         <v>42</v>
       </c>
       <c r="K42" s="0" t="n">
-        <v>2.4e3</v>
+        <v>600.0</v>
       </c>
       <c r="L42" s="0" t="n">
         <v>10</v>
@@ -4858,6 +4978,9 @@
       <c r="O42" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P42" s="0" t="s">
+        <v>42</v>
+      </c>
       <c r="Y42" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -4885,7 +5008,7 @@
         <v>171</v>
       </c>
       <c r="K43" s="0" t="n">
-        <v>290.0</v>
+        <v>29.0</v>
       </c>
       <c r="L43" s="0" t="n">
         <v>10</v>
@@ -4903,10 +5026,10 @@
         <v>171</v>
       </c>
       <c r="Q43" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="R43" s="0" t="s">
         <v>172</v>
-      </c>
-      <c r="R43" s="0" t="s">
-        <v>42</v>
       </c>
       <c r="S43" s="0" t="s">
         <v>42</v>
@@ -4923,6 +5046,9 @@
       <c r="W43" s="0" t="s">
         <v>42</v>
       </c>
+      <c r="X43" s="0" t="s">
+        <v>42</v>
+      </c>
       <c r="Y43" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -4959,7 +5085,7 @@
         <v>175</v>
       </c>
       <c r="K44" s="0" t="n">
-        <v>290.0</v>
+        <v>29.0</v>
       </c>
       <c r="L44" s="0" t="n">
         <v>10</v>
@@ -4973,6 +5099,9 @@
       <c r="O44" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P44" s="0" t="s">
+        <v>175</v>
+      </c>
       <c r="Y44" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -5009,7 +5138,7 @@
         <v>177</v>
       </c>
       <c r="K45" s="0" t="n">
-        <v>590.0</v>
+        <v>59.0</v>
       </c>
       <c r="L45" s="0" t="n">
         <v>10</v>
@@ -5023,6 +5152,9 @@
       <c r="O45" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P45" s="0" t="s">
+        <v>177</v>
+      </c>
       <c r="Y45" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -5059,7 +5191,7 @@
         <v>179</v>
       </c>
       <c r="K46" s="0" t="n">
-        <v>450.0</v>
+        <v>45.0</v>
       </c>
       <c r="L46" s="0" t="n">
         <v>10</v>
@@ -5073,6 +5205,9 @@
       <c r="O46" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P46" s="0" t="s">
+        <v>179</v>
+      </c>
       <c r="Y46" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -5109,7 +5244,7 @@
         <v>181</v>
       </c>
       <c r="K47" s="0" t="n">
-        <v>480.0</v>
+        <v>48.0</v>
       </c>
       <c r="L47" s="0" t="n">
         <v>10</v>
@@ -5123,6 +5258,9 @@
       <c r="O47" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P47" s="0" t="s">
+        <v>181</v>
+      </c>
       <c r="Y47" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -5150,7 +5288,7 @@
         <v>184</v>
       </c>
       <c r="K48" s="0" t="n">
-        <v>2.6e3</v>
+        <v>260.0</v>
       </c>
       <c r="L48" s="0" t="n">
         <v>10</v>
@@ -5168,24 +5306,27 @@
         <v>184</v>
       </c>
       <c r="Q48" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="R48" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="R48" s="0" t="s">
+      <c r="S48" s="0" t="s">
         <v>186</v>
       </c>
-      <c r="S48" s="0" t="s">
+      <c r="T48" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="T48" s="0" t="s">
+      <c r="U48" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="U48" s="0" t="s">
+      <c r="V48" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="V48" s="0" t="s">
+      <c r="W48" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="W48" s="0" t="s">
+      <c r="X48" s="0" t="s">
         <v>191</v>
       </c>
       <c r="Y48" s="0" t="n">
@@ -5224,7 +5365,7 @@
         <v>194</v>
       </c>
       <c r="K49" s="0" t="n">
-        <v>2.6e3</v>
+        <v>260.0</v>
       </c>
       <c r="L49" s="0" t="n">
         <v>10</v>
@@ -5238,6 +5379,9 @@
       <c r="O49" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P49" s="0" t="s">
+        <v>194</v>
+      </c>
       <c r="Y49" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -5274,7 +5418,7 @@
         <v>196</v>
       </c>
       <c r="K50" s="0" t="n">
-        <v>6.5e3</v>
+        <v>650.0</v>
       </c>
       <c r="L50" s="0" t="n">
         <v>10</v>
@@ -5288,6 +5432,9 @@
       <c r="O50" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P50" s="0" t="s">
+        <v>196</v>
+      </c>
       <c r="Y50" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -5315,7 +5462,7 @@
         <v>199</v>
       </c>
       <c r="K51" s="0" t="n">
-        <v>1290.0</v>
+        <v>129.0</v>
       </c>
       <c r="L51" s="0" t="n">
         <v>10</v>
@@ -5333,24 +5480,27 @@
         <v>199</v>
       </c>
       <c r="Q51" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="R51" s="0" t="s">
         <v>200</v>
       </c>
-      <c r="R51" s="0" t="s">
+      <c r="S51" s="0" t="s">
         <v>201</v>
       </c>
-      <c r="S51" s="0" t="s">
+      <c r="T51" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="T51" s="0" t="s">
+      <c r="U51" s="0" t="s">
         <v>203</v>
       </c>
-      <c r="U51" s="0" t="s">
+      <c r="V51" s="0" t="s">
         <v>204</v>
       </c>
-      <c r="V51" s="0" t="s">
+      <c r="W51" s="0" t="s">
         <v>205</v>
       </c>
-      <c r="W51" s="0" t="s">
+      <c r="X51" s="0" t="s">
         <v>42</v>
       </c>
       <c r="Y51" s="0" t="n">
@@ -5389,7 +5539,7 @@
         <v>208</v>
       </c>
       <c r="K52" s="0" t="n">
-        <v>2590.0</v>
+        <v>129.0</v>
       </c>
       <c r="L52" s="0" t="n">
         <v>10</v>
@@ -5403,6 +5553,9 @@
       <c r="O52" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P52" s="0" t="s">
+        <v>208</v>
+      </c>
       <c r="Y52" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -5439,7 +5592,7 @@
         <v>210</v>
       </c>
       <c r="K53" s="0" t="n">
-        <v>3590.0</v>
+        <v>259.0</v>
       </c>
       <c r="L53" s="0" t="n">
         <v>10</v>
@@ -5453,6 +5606,9 @@
       <c r="O53" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P53" s="0" t="s">
+        <v>210</v>
+      </c>
       <c r="Y53" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -5489,7 +5645,7 @@
         <v>212</v>
       </c>
       <c r="K54" s="0" t="n">
-        <v>1290.0</v>
+        <v>359.0</v>
       </c>
       <c r="L54" s="0" t="n">
         <v>10</v>
@@ -5503,6 +5659,9 @@
       <c r="O54" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P54" s="0" t="s">
+        <v>212</v>
+      </c>
       <c r="Y54" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -5530,7 +5689,7 @@
         <v>215</v>
       </c>
       <c r="K55" s="0" t="n">
-        <v>3.6e3</v>
+        <v>360.0</v>
       </c>
       <c r="L55" s="0" t="n">
         <v>10</v>
@@ -5548,10 +5707,10 @@
         <v>215</v>
       </c>
       <c r="Q55" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="R55" s="0" t="s">
         <v>216</v>
-      </c>
-      <c r="R55" s="0" t="s">
-        <v>42</v>
       </c>
       <c r="S55" s="0" t="s">
         <v>42</v>
@@ -5568,6 +5727,9 @@
       <c r="W55" s="0" t="s">
         <v>42</v>
       </c>
+      <c r="X55" s="0" t="s">
+        <v>42</v>
+      </c>
       <c r="Y55" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -5604,7 +5766,7 @@
         <v>219</v>
       </c>
       <c r="K56" s="0" t="n">
-        <v>3.6e3</v>
+        <v>360.0</v>
       </c>
       <c r="L56" s="0" t="n">
         <v>10</v>
@@ -5618,6 +5780,9 @@
       <c r="O56" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P56" s="0" t="s">
+        <v>219</v>
+      </c>
       <c r="Y56" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -5654,7 +5819,7 @@
         <v>221</v>
       </c>
       <c r="K57" s="0" t="n">
-        <v>3.6e3</v>
+        <v>360.0</v>
       </c>
       <c r="L57" s="0" t="n">
         <v>10</v>
@@ -5668,6 +5833,9 @@
       <c r="O57" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P57" s="0" t="s">
+        <v>221</v>
+      </c>
       <c r="Y57" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -5704,7 +5872,7 @@
         <v>223</v>
       </c>
       <c r="K58" s="0" t="n">
-        <v>3.6e3</v>
+        <v>360.0</v>
       </c>
       <c r="L58" s="0" t="n">
         <v>10</v>
@@ -5718,6 +5886,9 @@
       <c r="O58" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P58" s="0" t="s">
+        <v>223</v>
+      </c>
       <c r="Y58" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -5754,7 +5925,7 @@
         <v>225</v>
       </c>
       <c r="K59" s="0" t="n">
-        <v>3.6e3</v>
+        <v>360.0</v>
       </c>
       <c r="L59" s="0" t="n">
         <v>10</v>
@@ -5768,6 +5939,9 @@
       <c r="O59" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P59" s="0" t="s">
+        <v>225</v>
+      </c>
       <c r="Y59" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -5804,7 +5978,7 @@
         <v>227</v>
       </c>
       <c r="K60" s="0" t="n">
-        <v>3.6e3</v>
+        <v>360.0</v>
       </c>
       <c r="L60" s="0" t="n">
         <v>10</v>
@@ -5818,6 +5992,9 @@
       <c r="O60" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P60" s="0" t="s">
+        <v>227</v>
+      </c>
       <c r="Y60" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -5854,7 +6031,7 @@
         <v>229</v>
       </c>
       <c r="K61" s="0" t="n">
-        <v>3.6e3</v>
+        <v>360.0</v>
       </c>
       <c r="L61" s="0" t="n">
         <v>10</v>
@@ -5868,6 +6045,9 @@
       <c r="O61" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P61" s="0" t="s">
+        <v>229</v>
+      </c>
       <c r="Y61" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -5904,7 +6084,7 @@
         <v>231</v>
       </c>
       <c r="K62" s="0" t="n">
-        <v>3.6e3</v>
+        <v>360.0</v>
       </c>
       <c r="L62" s="0" t="n">
         <v>10</v>
@@ -5918,6 +6098,9 @@
       <c r="O62" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P62" s="0" t="s">
+        <v>231</v>
+      </c>
       <c r="Y62" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -5954,7 +6137,7 @@
         <v>233</v>
       </c>
       <c r="K63" s="0" t="n">
-        <v>3.6e3</v>
+        <v>360.0</v>
       </c>
       <c r="L63" s="0" t="n">
         <v>10</v>
@@ -5968,6 +6151,9 @@
       <c r="O63" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P63" s="0" t="s">
+        <v>233</v>
+      </c>
       <c r="Y63" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -6004,7 +6190,7 @@
         <v>235</v>
       </c>
       <c r="K64" s="0" t="n">
-        <v>3.6e3</v>
+        <v>360.0</v>
       </c>
       <c r="L64" s="0" t="n">
         <v>10</v>
@@ -6018,6 +6204,9 @@
       <c r="O64" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P64" s="0" t="s">
+        <v>235</v>
+      </c>
       <c r="Y64" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -6054,7 +6243,7 @@
         <v>237</v>
       </c>
       <c r="K65" s="0" t="n">
-        <v>3.6e3</v>
+        <v>360.0</v>
       </c>
       <c r="L65" s="0" t="n">
         <v>10</v>
@@ -6068,6 +6257,9 @@
       <c r="O65" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P65" s="0" t="s">
+        <v>237</v>
+      </c>
       <c r="Y65" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -6104,7 +6296,7 @@
         <v>239</v>
       </c>
       <c r="K66" s="0" t="n">
-        <v>3.6e3</v>
+        <v>360.0</v>
       </c>
       <c r="L66" s="0" t="n">
         <v>10</v>
@@ -6118,6 +6310,9 @@
       <c r="O66" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P66" s="0" t="s">
+        <v>239</v>
+      </c>
       <c r="Y66" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -6145,7 +6340,7 @@
         <v>242</v>
       </c>
       <c r="K67" s="0" t="n">
-        <v>500.0</v>
+        <v>50.0</v>
       </c>
       <c r="L67" s="0" t="n">
         <v>10</v>
@@ -6163,19 +6358,19 @@
         <v>242</v>
       </c>
       <c r="Q67" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="R67" s="0" t="s">
         <v>243</v>
       </c>
-      <c r="R67" s="0" t="s">
+      <c r="S67" s="0" t="s">
         <v>244</v>
       </c>
-      <c r="S67" s="0" t="s">
+      <c r="T67" s="0" t="s">
         <v>245</v>
       </c>
-      <c r="T67" s="0" t="s">
+      <c r="U67" s="0" t="s">
         <v>246</v>
-      </c>
-      <c r="U67" s="0" t="s">
-        <v>42</v>
       </c>
       <c r="V67" s="0" t="s">
         <v>42</v>
@@ -6183,6 +6378,9 @@
       <c r="W67" s="0" t="s">
         <v>42</v>
       </c>
+      <c r="X67" s="0" t="s">
+        <v>42</v>
+      </c>
       <c r="Y67" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -6219,7 +6417,7 @@
         <v>243</v>
       </c>
       <c r="K68" s="0" t="n">
-        <v>500.0</v>
+        <v>50.0</v>
       </c>
       <c r="L68" s="0" t="n">
         <v>10</v>
@@ -6233,6 +6431,9 @@
       <c r="O68" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P68" s="0" t="s">
+        <v>243</v>
+      </c>
       <c r="Y68" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -6269,7 +6470,7 @@
         <v>244</v>
       </c>
       <c r="K69" s="0" t="n">
-        <v>500.0</v>
+        <v>50.0</v>
       </c>
       <c r="L69" s="0" t="n">
         <v>10</v>
@@ -6283,6 +6484,9 @@
       <c r="O69" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P69" s="0" t="s">
+        <v>244</v>
+      </c>
       <c r="Y69" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -6319,7 +6523,7 @@
         <v>245</v>
       </c>
       <c r="K70" s="0" t="n">
-        <v>500.0</v>
+        <v>50.0</v>
       </c>
       <c r="L70" s="0" t="n">
         <v>10</v>
@@ -6333,6 +6537,9 @@
       <c r="O70" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P70" s="0" t="s">
+        <v>245</v>
+      </c>
       <c r="Y70" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -6369,7 +6576,7 @@
         <v>246</v>
       </c>
       <c r="K71" s="0" t="n">
-        <v>500.0</v>
+        <v>50.0</v>
       </c>
       <c r="L71" s="0" t="n">
         <v>10</v>
@@ -6383,6 +6590,9 @@
       <c r="O71" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P71" s="0" t="s">
+        <v>246</v>
+      </c>
       <c r="Y71" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -6410,7 +6620,7 @@
         <v>254</v>
       </c>
       <c r="K72" s="0" t="n">
-        <v>90.0</v>
+        <v>9.0</v>
       </c>
       <c r="L72" s="0" t="n">
         <v>10</v>
@@ -6428,10 +6638,10 @@
         <v>254</v>
       </c>
       <c r="Q72" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="R72" s="0" t="s">
         <v>255</v>
-      </c>
-      <c r="R72" s="0" t="s">
-        <v>42</v>
       </c>
       <c r="S72" s="0" t="s">
         <v>42</v>
@@ -6448,6 +6658,9 @@
       <c r="W72" s="0" t="s">
         <v>42</v>
       </c>
+      <c r="X72" s="0" t="s">
+        <v>42</v>
+      </c>
       <c r="Y72" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -6484,7 +6697,7 @@
         <v>258</v>
       </c>
       <c r="K73" s="0" t="n">
-        <v>90.0</v>
+        <v>45.0</v>
       </c>
       <c r="L73" s="0" t="n">
         <v>10</v>
@@ -6498,6 +6711,9 @@
       <c r="O73" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P73" s="0" t="s">
+        <v>258</v>
+      </c>
       <c r="Y73" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -6534,7 +6750,7 @@
         <v>260</v>
       </c>
       <c r="K74" s="0" t="n">
-        <v>450.0</v>
+        <v>9.0</v>
       </c>
       <c r="L74" s="0" t="n">
         <v>10</v>
@@ -6548,6 +6764,9 @@
       <c r="O74" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P74" s="0" t="s">
+        <v>260</v>
+      </c>
       <c r="Y74" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -6575,7 +6794,7 @@
         <v>263</v>
       </c>
       <c r="K75" s="0" t="n">
-        <v>2.7e3</v>
+        <v>270.0</v>
       </c>
       <c r="L75" s="0" t="n">
         <v>10</v>
@@ -6593,19 +6812,19 @@
         <v>263</v>
       </c>
       <c r="Q75" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="R75" s="0" t="s">
         <v>264</v>
       </c>
-      <c r="R75" s="0" t="s">
+      <c r="S75" s="0" t="s">
         <v>265</v>
       </c>
-      <c r="S75" s="0" t="s">
+      <c r="T75" s="0" t="s">
         <v>266</v>
       </c>
-      <c r="T75" s="0" t="s">
+      <c r="U75" s="0" t="s">
         <v>267</v>
-      </c>
-      <c r="U75" s="0" t="s">
-        <v>42</v>
       </c>
       <c r="V75" s="0" t="s">
         <v>42</v>
@@ -6613,6 +6832,9 @@
       <c r="W75" s="0" t="s">
         <v>42</v>
       </c>
+      <c r="X75" s="0" t="s">
+        <v>42</v>
+      </c>
       <c r="Y75" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -6643,13 +6865,13 @@
         <v>60</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>193</v>
+        <v>269</v>
       </c>
       <c r="H76" s="0" t="s">
         <v>266</v>
       </c>
       <c r="K76" s="0" t="n">
-        <v>5.4e3</v>
+        <v>1080.0</v>
       </c>
       <c r="L76" s="0" t="n">
         <v>10</v>
@@ -6663,6 +6885,9 @@
       <c r="O76" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P76" s="0" t="s">
+        <v>266</v>
+      </c>
       <c r="Y76" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -6693,13 +6918,13 @@
         <v>60</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H77" s="0" t="s">
         <v>264</v>
       </c>
       <c r="K77" s="0" t="n">
-        <v>1.08e4</v>
+        <v>270.0</v>
       </c>
       <c r="L77" s="0" t="n">
         <v>10</v>
@@ -6713,6 +6938,9 @@
       <c r="O77" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P77" s="0" t="s">
+        <v>264</v>
+      </c>
       <c r="Y77" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -6743,13 +6971,13 @@
         <v>60</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>270</v>
+        <v>193</v>
       </c>
       <c r="H78" s="0" t="s">
         <v>271</v>
       </c>
       <c r="K78" s="0" t="n">
-        <v>2.7e3</v>
+        <v>540.0</v>
       </c>
       <c r="L78" s="0" t="n">
         <v>10</v>
@@ -6763,6 +6991,9 @@
       <c r="O78" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P78" s="0" t="s">
+        <v>271</v>
+      </c>
       <c r="Y78" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -6790,7 +7021,7 @@
         <v>274</v>
       </c>
       <c r="K79" s="0" t="n">
-        <v>2.0e3</v>
+        <v>200.0</v>
       </c>
       <c r="L79" s="0" t="n">
         <v>10</v>
@@ -6808,19 +7039,19 @@
         <v>274</v>
       </c>
       <c r="Q79" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="R79" s="0" t="s">
         <v>275</v>
       </c>
-      <c r="R79" s="0" t="s">
+      <c r="S79" s="0" t="s">
         <v>276</v>
       </c>
-      <c r="S79" s="0" t="s">
+      <c r="T79" s="0" t="s">
         <v>277</v>
       </c>
-      <c r="T79" s="0" t="s">
+      <c r="U79" s="0" t="s">
         <v>278</v>
-      </c>
-      <c r="U79" s="0" t="s">
-        <v>42</v>
       </c>
       <c r="V79" s="0" t="s">
         <v>42</v>
@@ -6828,6 +7059,9 @@
       <c r="W79" s="0" t="s">
         <v>42</v>
       </c>
+      <c r="X79" s="0" t="s">
+        <v>42</v>
+      </c>
       <c r="Y79" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -6858,13 +7092,13 @@
         <v>60</v>
       </c>
       <c r="G80" s="0" t="s">
-        <v>193</v>
+        <v>280</v>
       </c>
       <c r="H80" s="0" t="s">
         <v>277</v>
       </c>
       <c r="K80" s="0" t="n">
-        <v>2.0e3</v>
+        <v>1.0e3</v>
       </c>
       <c r="L80" s="0" t="n">
         <v>10</v>
@@ -6878,6 +7112,9 @@
       <c r="O80" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P80" s="0" t="s">
+        <v>277</v>
+      </c>
       <c r="Y80" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -6908,13 +7145,13 @@
         <v>60</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>280</v>
+        <v>193</v>
       </c>
       <c r="H81" s="0" t="s">
         <v>274</v>
       </c>
       <c r="K81" s="0" t="n">
-        <v>1.0e4</v>
+        <v>200.0</v>
       </c>
       <c r="L81" s="0" t="n">
         <v>10</v>
@@ -6928,6 +7165,9 @@
       <c r="O81" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P81" s="0" t="s">
+        <v>274</v>
+      </c>
       <c r="Y81" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -6955,7 +7195,7 @@
         <v>283</v>
       </c>
       <c r="K82" s="0" t="n">
-        <v>2.0e3</v>
+        <v>200.0</v>
       </c>
       <c r="L82" s="0" t="n">
         <v>10</v>
@@ -6973,24 +7213,27 @@
         <v>283</v>
       </c>
       <c r="Q82" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="R82" s="0" t="s">
         <v>284</v>
       </c>
-      <c r="R82" s="0" t="s">
+      <c r="S82" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="S82" s="0" t="s">
+      <c r="T82" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="T82" s="0" t="s">
+      <c r="U82" s="0" t="s">
         <v>287</v>
       </c>
-      <c r="U82" s="0" t="s">
+      <c r="V82" s="0" t="s">
         <v>288</v>
       </c>
-      <c r="V82" s="0" t="s">
+      <c r="W82" s="0" t="s">
         <v>289</v>
       </c>
-      <c r="W82" s="0" t="s">
+      <c r="X82" s="0" t="s">
         <v>290</v>
       </c>
       <c r="Y82" s="0" t="n">
@@ -7029,7 +7272,7 @@
         <v>293</v>
       </c>
       <c r="K83" s="0" t="n">
-        <v>2.0e3</v>
+        <v>200.0</v>
       </c>
       <c r="L83" s="0" t="n">
         <v>10</v>
@@ -7043,6 +7286,9 @@
       <c r="O83" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P83" s="0" t="s">
+        <v>293</v>
+      </c>
       <c r="Y83" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -7079,7 +7325,7 @@
         <v>295</v>
       </c>
       <c r="K84" s="0" t="n">
-        <v>2.0e3</v>
+        <v>200.0</v>
       </c>
       <c r="L84" s="0" t="n">
         <v>10</v>
@@ -7093,6 +7339,9 @@
       <c r="O84" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P84" s="0" t="s">
+        <v>295</v>
+      </c>
       <c r="Y84" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -7129,7 +7378,7 @@
         <v>297</v>
       </c>
       <c r="K85" s="0" t="n">
-        <v>2.0e3</v>
+        <v>200.0</v>
       </c>
       <c r="L85" s="0" t="n">
         <v>10</v>
@@ -7143,6 +7392,9 @@
       <c r="O85" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P85" s="0" t="s">
+        <v>297</v>
+      </c>
       <c r="Y85" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -7179,7 +7431,7 @@
         <v>299</v>
       </c>
       <c r="K86" s="0" t="n">
-        <v>2.0e3</v>
+        <v>200.0</v>
       </c>
       <c r="L86" s="0" t="n">
         <v>10</v>
@@ -7193,6 +7445,9 @@
       <c r="O86" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P86" s="0" t="s">
+        <v>299</v>
+      </c>
       <c r="Y86" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -7229,7 +7484,7 @@
         <v>301</v>
       </c>
       <c r="K87" s="0" t="n">
-        <v>2.0e3</v>
+        <v>200.0</v>
       </c>
       <c r="L87" s="0" t="n">
         <v>10</v>
@@ -7243,6 +7498,9 @@
       <c r="O87" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P87" s="0" t="s">
+        <v>301</v>
+      </c>
       <c r="Y87" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -7279,7 +7537,7 @@
         <v>303</v>
       </c>
       <c r="K88" s="0" t="n">
-        <v>2.0e3</v>
+        <v>200.0</v>
       </c>
       <c r="L88" s="0" t="n">
         <v>10</v>
@@ -7293,6 +7551,9 @@
       <c r="O88" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P88" s="0" t="s">
+        <v>303</v>
+      </c>
       <c r="Y88" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -7329,7 +7590,7 @@
         <v>305</v>
       </c>
       <c r="K89" s="0" t="n">
-        <v>2.0e3</v>
+        <v>200.0</v>
       </c>
       <c r="L89" s="0" t="n">
         <v>10</v>
@@ -7343,6 +7604,9 @@
       <c r="O89" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P89" s="0" t="s">
+        <v>305</v>
+      </c>
       <c r="Y89" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -7379,7 +7643,7 @@
         <v>307</v>
       </c>
       <c r="K90" s="0" t="n">
-        <v>2.0e3</v>
+        <v>200.0</v>
       </c>
       <c r="L90" s="0" t="n">
         <v>10</v>
@@ -7393,6 +7657,9 @@
       <c r="O90" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P90" s="0" t="s">
+        <v>307</v>
+      </c>
       <c r="Y90" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -7420,7 +7687,7 @@
         <v>310</v>
       </c>
       <c r="K91" s="0" t="n">
-        <v>4.5e3</v>
+        <v>450.0</v>
       </c>
       <c r="L91" s="0" t="n">
         <v>10</v>
@@ -7438,19 +7705,19 @@
         <v>310</v>
       </c>
       <c r="Q91" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="R91" s="0" t="s">
         <v>311</v>
       </c>
-      <c r="R91" s="0" t="s">
+      <c r="S91" s="0" t="s">
         <v>312</v>
       </c>
-      <c r="S91" s="0" t="s">
+      <c r="T91" s="0" t="s">
         <v>313</v>
       </c>
-      <c r="T91" s="0" t="s">
+      <c r="U91" s="0" t="s">
         <v>314</v>
-      </c>
-      <c r="U91" s="0" t="s">
-        <v>42</v>
       </c>
       <c r="V91" s="0" t="s">
         <v>42</v>
@@ -7458,6 +7725,9 @@
       <c r="W91" s="0" t="s">
         <v>42</v>
       </c>
+      <c r="X91" s="0" t="s">
+        <v>42</v>
+      </c>
       <c r="Y91" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -7488,13 +7758,13 @@
         <v>60</v>
       </c>
       <c r="G92" s="0" t="s">
-        <v>193</v>
+        <v>270</v>
       </c>
       <c r="H92" s="0" t="s">
         <v>316</v>
       </c>
       <c r="K92" s="0" t="n">
-        <v>9.0e3</v>
+        <v>450.0</v>
       </c>
       <c r="L92" s="0" t="n">
         <v>10</v>
@@ -7508,6 +7778,9 @@
       <c r="O92" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P92" s="0" t="s">
+        <v>316</v>
+      </c>
       <c r="Y92" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -7538,13 +7811,13 @@
         <v>60</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>270</v>
+        <v>193</v>
       </c>
       <c r="H93" s="0" t="s">
         <v>317</v>
       </c>
       <c r="K93" s="0" t="n">
-        <v>4.5e3</v>
+        <v>900.0</v>
       </c>
       <c r="L93" s="0" t="n">
         <v>10</v>
@@ -7558,6 +7831,9 @@
       <c r="O93" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P93" s="0" t="s">
+        <v>317</v>
+      </c>
       <c r="Y93" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -7585,7 +7861,7 @@
         <v>320</v>
       </c>
       <c r="K94" s="0" t="n">
-        <v>2.5e3</v>
+        <v>250.0</v>
       </c>
       <c r="L94" s="0" t="n">
         <v>10</v>
@@ -7603,24 +7879,27 @@
         <v>320</v>
       </c>
       <c r="Q94" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="R94" s="0" t="s">
         <v>321</v>
       </c>
-      <c r="R94" s="0" t="s">
+      <c r="S94" s="0" t="s">
         <v>322</v>
       </c>
-      <c r="S94" s="0" t="s">
+      <c r="T94" s="0" t="s">
         <v>323</v>
       </c>
-      <c r="T94" s="0" t="s">
+      <c r="U94" s="0" t="s">
         <v>324</v>
       </c>
-      <c r="U94" s="0" t="s">
+      <c r="V94" s="0" t="s">
         <v>325</v>
       </c>
-      <c r="V94" s="0" t="s">
+      <c r="W94" s="0" t="s">
         <v>326</v>
       </c>
-      <c r="W94" s="0" t="s">
+      <c r="X94" s="0" t="s">
         <v>327</v>
       </c>
       <c r="Y94" s="0" t="n">
@@ -7659,7 +7938,7 @@
         <v>330</v>
       </c>
       <c r="K95" s="0" t="n">
-        <v>2.5e3</v>
+        <v>250.0</v>
       </c>
       <c r="L95" s="0" t="n">
         <v>10</v>
@@ -7673,6 +7952,9 @@
       <c r="O95" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P95" s="0" t="s">
+        <v>330</v>
+      </c>
       <c r="Y95" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -7709,7 +7991,7 @@
         <v>332</v>
       </c>
       <c r="K96" s="0" t="n">
-        <v>2.5e3</v>
+        <v>250.0</v>
       </c>
       <c r="L96" s="0" t="n">
         <v>10</v>
@@ -7723,6 +8005,9 @@
       <c r="O96" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P96" s="0" t="s">
+        <v>332</v>
+      </c>
       <c r="Y96" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -7759,7 +8044,7 @@
         <v>334</v>
       </c>
       <c r="K97" s="0" t="n">
-        <v>2.5e3</v>
+        <v>250.0</v>
       </c>
       <c r="L97" s="0" t="n">
         <v>10</v>
@@ -7773,6 +8058,9 @@
       <c r="O97" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P97" s="0" t="s">
+        <v>334</v>
+      </c>
       <c r="Y97" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -7809,7 +8097,7 @@
         <v>320</v>
       </c>
       <c r="K98" s="0" t="n">
-        <v>2.5e3</v>
+        <v>250.0</v>
       </c>
       <c r="L98" s="0" t="n">
         <v>10</v>
@@ -7823,6 +8111,9 @@
       <c r="O98" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P98" s="0" t="s">
+        <v>320</v>
+      </c>
       <c r="Y98" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -7850,7 +8141,7 @@
         <v>338</v>
       </c>
       <c r="K99" s="0" t="n">
-        <v>1.8e4</v>
+        <v>1.8e3</v>
       </c>
       <c r="L99" s="0" t="n">
         <v>10</v>
@@ -7868,26 +8159,29 @@
         <v>338</v>
       </c>
       <c r="Q99" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="R99" s="0" t="s">
         <v>339</v>
       </c>
-      <c r="R99" s="0" t="s">
+      <c r="S99" s="0" t="s">
         <v>340</v>
       </c>
-      <c r="S99" s="0" t="s">
+      <c r="T99" s="0" t="s">
         <v>341</v>
       </c>
-      <c r="T99" s="0" t="s">
+      <c r="U99" s="0" t="s">
         <v>342</v>
       </c>
-      <c r="U99" s="0" t="s">
+      <c r="V99" s="0" t="s">
         <v>343</v>
-      </c>
-      <c r="V99" s="0" t="s">
-        <v>42</v>
       </c>
       <c r="W99" s="0" t="s">
         <v>42</v>
       </c>
+      <c r="X99" s="0" t="s">
+        <v>42</v>
+      </c>
       <c r="Y99" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -7918,13 +8212,13 @@
         <v>60</v>
       </c>
       <c r="G100" s="0" t="s">
-        <v>270</v>
+        <v>193</v>
       </c>
       <c r="H100" s="0" t="s">
         <v>340</v>
       </c>
       <c r="K100" s="0" t="n">
-        <v>1.8e4</v>
+        <v>3.6e3</v>
       </c>
       <c r="L100" s="0" t="n">
         <v>10</v>
@@ -7938,6 +8232,9 @@
       <c r="O100" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P100" s="0" t="s">
+        <v>340</v>
+      </c>
       <c r="Y100" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -7968,13 +8265,13 @@
         <v>60</v>
       </c>
       <c r="G101" s="0" t="s">
-        <v>193</v>
+        <v>270</v>
       </c>
       <c r="H101" s="0" t="s">
         <v>338</v>
       </c>
       <c r="K101" s="0" t="n">
-        <v>3.6e4</v>
+        <v>1.8e3</v>
       </c>
       <c r="L101" s="0" t="n">
         <v>10</v>
@@ -7988,6 +8285,9 @@
       <c r="O101" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P101" s="0" t="s">
+        <v>338</v>
+      </c>
       <c r="Y101" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -8015,7 +8315,7 @@
         <v>347</v>
       </c>
       <c r="K102" s="0" t="n">
-        <v>8.0e3</v>
+        <v>800.0</v>
       </c>
       <c r="L102" s="0" t="n">
         <v>10</v>
@@ -8033,13 +8333,13 @@
         <v>347</v>
       </c>
       <c r="Q102" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="R102" s="0" t="s">
         <v>348</v>
       </c>
-      <c r="R102" s="0" t="s">
+      <c r="S102" s="0" t="s">
         <v>349</v>
-      </c>
-      <c r="S102" s="0" t="s">
-        <v>42</v>
       </c>
       <c r="T102" s="0" t="s">
         <v>42</v>
@@ -8053,6 +8353,9 @@
       <c r="W102" s="0" t="s">
         <v>42</v>
       </c>
+      <c r="X102" s="0" t="s">
+        <v>42</v>
+      </c>
       <c r="Y102" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -8089,7 +8392,7 @@
         <v>347</v>
       </c>
       <c r="K103" s="0" t="n">
-        <v>8.0e3</v>
+        <v>800.0</v>
       </c>
       <c r="L103" s="0" t="n">
         <v>10</v>
@@ -8103,6 +8406,9 @@
       <c r="O103" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P103" s="0" t="s">
+        <v>347</v>
+      </c>
       <c r="Y103" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -8139,7 +8445,7 @@
         <v>348</v>
       </c>
       <c r="K104" s="0" t="n">
-        <v>8.0e3</v>
+        <v>800.0</v>
       </c>
       <c r="L104" s="0" t="n">
         <v>10</v>
@@ -8153,6 +8459,9 @@
       <c r="O104" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P104" s="0" t="s">
+        <v>348</v>
+      </c>
       <c r="Y104" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -8180,7 +8489,7 @@
         <v>355</v>
       </c>
       <c r="K105" s="0" t="n">
-        <v>1.6e4</v>
+        <v>1.6e3</v>
       </c>
       <c r="L105" s="0" t="n">
         <v>10</v>
@@ -8198,26 +8507,29 @@
         <v>355</v>
       </c>
       <c r="Q105" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="R105" s="0" t="s">
         <v>356</v>
       </c>
-      <c r="R105" s="0" t="s">
+      <c r="S105" s="0" t="s">
         <v>357</v>
       </c>
-      <c r="S105" s="0" t="s">
+      <c r="T105" s="0" t="s">
         <v>358</v>
       </c>
-      <c r="T105" s="0" t="s">
+      <c r="U105" s="0" t="s">
         <v>359</v>
       </c>
-      <c r="U105" s="0" t="s">
+      <c r="V105" s="0" t="s">
         <v>360</v>
-      </c>
-      <c r="V105" s="0" t="s">
-        <v>42</v>
       </c>
       <c r="W105" s="0" t="s">
         <v>42</v>
       </c>
+      <c r="X105" s="0" t="s">
+        <v>42</v>
+      </c>
       <c r="Y105" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -8248,13 +8560,13 @@
         <v>60</v>
       </c>
       <c r="G106" s="0" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H106" s="0" t="s">
         <v>362</v>
       </c>
       <c r="K106" s="0" t="n">
-        <v>1.6e4</v>
+        <v>4.0e3</v>
       </c>
       <c r="L106" s="0" t="n">
         <v>10</v>
@@ -8268,6 +8580,9 @@
       <c r="O106" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P106" s="0" t="s">
+        <v>362</v>
+      </c>
       <c r="Y106" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -8298,13 +8613,13 @@
         <v>60</v>
       </c>
       <c r="G107" s="0" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H107" s="0" t="s">
         <v>363</v>
       </c>
       <c r="K107" s="0" t="n">
-        <v>4.0e4</v>
+        <v>1.6e3</v>
       </c>
       <c r="L107" s="0" t="n">
         <v>10</v>
@@ -8318,6 +8633,9 @@
       <c r="O107" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P107" s="0" t="s">
+        <v>363</v>
+      </c>
       <c r="Y107" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -8345,7 +8663,7 @@
         <v>366</v>
       </c>
       <c r="K108" s="0" t="n">
-        <v>3.0e4</v>
+        <v>3.0e3</v>
       </c>
       <c r="L108" s="0" t="n">
         <v>10</v>
@@ -8363,19 +8681,19 @@
         <v>366</v>
       </c>
       <c r="Q108" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="R108" s="0" t="s">
         <v>367</v>
       </c>
-      <c r="R108" s="0" t="s">
+      <c r="S108" s="0" t="s">
         <v>368</v>
       </c>
-      <c r="S108" s="0" t="s">
+      <c r="T108" s="0" t="s">
         <v>369</v>
       </c>
-      <c r="T108" s="0" t="s">
+      <c r="U108" s="0" t="s">
         <v>370</v>
-      </c>
-      <c r="U108" s="0" t="s">
-        <v>42</v>
       </c>
       <c r="V108" s="0" t="s">
         <v>42</v>
@@ -8383,6 +8701,9 @@
       <c r="W108" s="0" t="s">
         <v>42</v>
       </c>
+      <c r="X108" s="0" t="s">
+        <v>42</v>
+      </c>
       <c r="Y108" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -8419,7 +8740,7 @@
         <v>367</v>
       </c>
       <c r="K109" s="0" t="n">
-        <v>3.0e4</v>
+        <v>3.0e3</v>
       </c>
       <c r="L109" s="0" t="n">
         <v>10</v>
@@ -8433,6 +8754,9 @@
       <c r="O109" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P109" s="0" t="s">
+        <v>367</v>
+      </c>
       <c r="Y109" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -8460,7 +8784,7 @@
         <v>374</v>
       </c>
       <c r="K110" s="0" t="n">
-        <v>8.9e3</v>
+        <v>890.0</v>
       </c>
       <c r="L110" s="0" t="n">
         <v>10</v>
@@ -8478,24 +8802,27 @@
         <v>374</v>
       </c>
       <c r="Q110" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="R110" s="0" t="s">
         <v>375</v>
       </c>
-      <c r="R110" s="0" t="s">
+      <c r="S110" s="0" t="s">
         <v>376</v>
       </c>
-      <c r="S110" s="0" t="s">
+      <c r="T110" s="0" t="s">
         <v>377</v>
       </c>
-      <c r="T110" s="0" t="s">
+      <c r="U110" s="0" t="s">
         <v>378</v>
       </c>
-      <c r="U110" s="0" t="s">
+      <c r="V110" s="0" t="s">
         <v>379</v>
       </c>
-      <c r="V110" s="0" t="s">
+      <c r="W110" s="0" t="s">
         <v>380</v>
       </c>
-      <c r="W110" s="0" t="s">
+      <c r="X110" s="0" t="s">
         <v>42</v>
       </c>
       <c r="Y110" s="0" t="n">
@@ -8534,7 +8861,7 @@
         <v>383</v>
       </c>
       <c r="K111" s="0" t="n">
-        <v>1.5e4</v>
+        <v>2.2e3</v>
       </c>
       <c r="L111" s="0" t="n">
         <v>10</v>
@@ -8548,6 +8875,9 @@
       <c r="O111" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P111" s="0" t="s">
+        <v>383</v>
+      </c>
       <c r="Y111" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -8584,7 +8914,7 @@
         <v>385</v>
       </c>
       <c r="K112" s="0" t="n">
-        <v>2.2e4</v>
+        <v>890.0</v>
       </c>
       <c r="L112" s="0" t="n">
         <v>10</v>
@@ -8598,6 +8928,9 @@
       <c r="O112" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P112" s="0" t="s">
+        <v>385</v>
+      </c>
       <c r="Y112" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -8634,7 +8967,7 @@
         <v>387</v>
       </c>
       <c r="K113" s="0" t="n">
-        <v>8.9e3</v>
+        <v>1.5e3</v>
       </c>
       <c r="L113" s="0" t="n">
         <v>10</v>
@@ -8648,6 +8981,9 @@
       <c r="O113" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P113" s="0" t="s">
+        <v>387</v>
+      </c>
       <c r="Y113" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -8675,7 +9011,7 @@
         <v>390</v>
       </c>
       <c r="K114" s="0" t="n">
-        <v>4.3e3</v>
+        <v>430.0</v>
       </c>
       <c r="L114" s="0" t="n">
         <v>10</v>
@@ -8693,24 +9029,27 @@
         <v>390</v>
       </c>
       <c r="Q114" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="R114" s="0" t="s">
         <v>391</v>
       </c>
-      <c r="R114" s="0" t="s">
+      <c r="S114" s="0" t="s">
         <v>392</v>
       </c>
-      <c r="S114" s="0" t="s">
+      <c r="T114" s="0" t="s">
         <v>393</v>
       </c>
-      <c r="T114" s="0" t="s">
+      <c r="U114" s="0" t="s">
         <v>394</v>
       </c>
-      <c r="U114" s="0" t="s">
+      <c r="V114" s="0" t="s">
         <v>395</v>
       </c>
-      <c r="V114" s="0" t="s">
+      <c r="W114" s="0" t="s">
         <v>396</v>
       </c>
-      <c r="W114" s="0" t="s">
+      <c r="X114" s="0" t="s">
         <v>397</v>
       </c>
       <c r="Y114" s="0" t="n">
@@ -8749,7 +9088,7 @@
         <v>400</v>
       </c>
       <c r="K115" s="0" t="n">
-        <v>5.0e3</v>
+        <v>500.0</v>
       </c>
       <c r="L115" s="0" t="n">
         <v>10</v>
@@ -8763,6 +9102,9 @@
       <c r="O115" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P115" s="0" t="s">
+        <v>400</v>
+      </c>
       <c r="Y115" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -8799,7 +9141,7 @@
         <v>402</v>
       </c>
       <c r="K116" s="0" t="n">
-        <v>5.0e3</v>
+        <v>1.3e3</v>
       </c>
       <c r="L116" s="0" t="n">
         <v>10</v>
@@ -8813,6 +9155,9 @@
       <c r="O116" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P116" s="0" t="s">
+        <v>402</v>
+      </c>
       <c r="Y116" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -8849,7 +9194,7 @@
         <v>404</v>
       </c>
       <c r="K117" s="0" t="n">
-        <v>5.0e3</v>
+        <v>430.0</v>
       </c>
       <c r="L117" s="0" t="n">
         <v>10</v>
@@ -8863,6 +9208,9 @@
       <c r="O117" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P117" s="0" t="s">
+        <v>404</v>
+      </c>
       <c r="Y117" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -8899,7 +9247,7 @@
         <v>406</v>
       </c>
       <c r="K118" s="0" t="n">
-        <v>5.0e3</v>
+        <v>450.0</v>
       </c>
       <c r="L118" s="0" t="n">
         <v>10</v>
@@ -8913,6 +9261,9 @@
       <c r="O118" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P118" s="0" t="s">
+        <v>406</v>
+      </c>
       <c r="Y118" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -8949,7 +9300,7 @@
         <v>408</v>
       </c>
       <c r="K119" s="0" t="n">
-        <v>5.0e3</v>
+        <v>500.0</v>
       </c>
       <c r="L119" s="0" t="n">
         <v>10</v>
@@ -8963,6 +9314,9 @@
       <c r="O119" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P119" s="0" t="s">
+        <v>408</v>
+      </c>
       <c r="Y119" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -8999,7 +9353,7 @@
         <v>410</v>
       </c>
       <c r="K120" s="0" t="n">
-        <v>1.3e4</v>
+        <v>500.0</v>
       </c>
       <c r="L120" s="0" t="n">
         <v>10</v>
@@ -9013,6 +9367,9 @@
       <c r="O120" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P120" s="0" t="s">
+        <v>410</v>
+      </c>
       <c r="Y120" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -9049,7 +9406,7 @@
         <v>412</v>
       </c>
       <c r="K121" s="0" t="n">
-        <v>4.3e3</v>
+        <v>500.0</v>
       </c>
       <c r="L121" s="0" t="n">
         <v>10</v>
@@ -9063,6 +9420,9 @@
       <c r="O121" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P121" s="0" t="s">
+        <v>412</v>
+      </c>
       <c r="Y121" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -9099,7 +9459,7 @@
         <v>414</v>
       </c>
       <c r="K122" s="0" t="n">
-        <v>4.5e3</v>
+        <v>500.0</v>
       </c>
       <c r="L122" s="0" t="n">
         <v>10</v>
@@ -9113,6 +9473,9 @@
       <c r="O122" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P122" s="0" t="s">
+        <v>414</v>
+      </c>
       <c r="Y122" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -9140,7 +9503,7 @@
         <v>417</v>
       </c>
       <c r="K123" s="0" t="n">
-        <v>3.5e3</v>
+        <v>350.0</v>
       </c>
       <c r="L123" s="0" t="n">
         <v>10</v>
@@ -9158,24 +9521,27 @@
         <v>417</v>
       </c>
       <c r="Q123" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="R123" s="0" t="s">
         <v>418</v>
       </c>
-      <c r="R123" s="0" t="s">
+      <c r="S123" s="0" t="s">
         <v>419</v>
-      </c>
-      <c r="S123" s="0" t="s">
-        <v>420</v>
       </c>
       <c r="T123" s="0" t="s">
         <v>420</v>
       </c>
       <c r="U123" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="V123" s="0" t="s">
         <v>421</v>
       </c>
-      <c r="V123" s="0" t="s">
+      <c r="W123" s="0" t="s">
         <v>422</v>
       </c>
-      <c r="W123" s="0" t="s">
+      <c r="X123" s="0" t="s">
         <v>423</v>
       </c>
       <c r="Y123" s="0" t="n">
@@ -9214,7 +9580,7 @@
         <v>417</v>
       </c>
       <c r="K124" s="0" t="n">
-        <v>4.2e3</v>
+        <v>650.0</v>
       </c>
       <c r="L124" s="0" t="n">
         <v>10</v>
@@ -9228,6 +9594,9 @@
       <c r="O124" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P124" s="0" t="s">
+        <v>417</v>
+      </c>
       <c r="Y124" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -9264,7 +9633,7 @@
         <v>418</v>
       </c>
       <c r="K125" s="0" t="n">
-        <v>9.8e3</v>
+        <v>420.0</v>
       </c>
       <c r="L125" s="0" t="n">
         <v>10</v>
@@ -9278,6 +9647,9 @@
       <c r="O125" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P125" s="0" t="s">
+        <v>418</v>
+      </c>
       <c r="Y125" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -9314,7 +9686,7 @@
         <v>428</v>
       </c>
       <c r="K126" s="0" t="n">
-        <v>4.2e3</v>
+        <v>900.0</v>
       </c>
       <c r="L126" s="0" t="n">
         <v>10</v>
@@ -9328,6 +9700,9 @@
       <c r="O126" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P126" s="0" t="s">
+        <v>428</v>
+      </c>
       <c r="Y126" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -9364,7 +9739,7 @@
         <v>419</v>
       </c>
       <c r="K127" s="0" t="n">
-        <v>6.5e3</v>
+        <v>750.0</v>
       </c>
       <c r="L127" s="0" t="n">
         <v>10</v>
@@ -9378,6 +9753,9 @@
       <c r="O127" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P127" s="0" t="s">
+        <v>419</v>
+      </c>
       <c r="Y127" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -9414,7 +9792,7 @@
         <v>420</v>
       </c>
       <c r="K128" s="0" t="n">
-        <v>7.5e3</v>
+        <v>420.0</v>
       </c>
       <c r="L128" s="0" t="n">
         <v>10</v>
@@ -9428,6 +9806,9 @@
       <c r="O128" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P128" s="0" t="s">
+        <v>420</v>
+      </c>
       <c r="Y128" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -9464,7 +9845,7 @@
         <v>421</v>
       </c>
       <c r="K129" s="0" t="n">
-        <v>9.0e3</v>
+        <v>650.0</v>
       </c>
       <c r="L129" s="0" t="n">
         <v>10</v>
@@ -9478,6 +9859,9 @@
       <c r="O129" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P129" s="0" t="s">
+        <v>421</v>
+      </c>
       <c r="Y129" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -9514,7 +9898,7 @@
         <v>422</v>
       </c>
       <c r="K130" s="0" t="n">
-        <v>3.5e3</v>
+        <v>980.0</v>
       </c>
       <c r="L130" s="0" t="n">
         <v>10</v>
@@ -9528,6 +9912,9 @@
       <c r="O130" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P130" s="0" t="s">
+        <v>422</v>
+      </c>
       <c r="Y130" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -9564,7 +9951,7 @@
         <v>423</v>
       </c>
       <c r="K131" s="0" t="n">
-        <v>6.5e3</v>
+        <v>750.0</v>
       </c>
       <c r="L131" s="0" t="n">
         <v>10</v>
@@ -9578,6 +9965,9 @@
       <c r="O131" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P131" s="0" t="s">
+        <v>423</v>
+      </c>
       <c r="Y131" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -9614,7 +10004,7 @@
         <v>435</v>
       </c>
       <c r="K132" s="0" t="n">
-        <v>7.5e3</v>
+        <v>350.0</v>
       </c>
       <c r="L132" s="0" t="n">
         <v>10</v>
@@ -9628,6 +10018,9 @@
       <c r="O132" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P132" s="0" t="s">
+        <v>435</v>
+      </c>
       <c r="Y132" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -9655,7 +10048,7 @@
         <v>438</v>
       </c>
       <c r="K133" s="0" t="n">
-        <v>4.5e3</v>
+        <v>450.0</v>
       </c>
       <c r="L133" s="0" t="n">
         <v>10</v>
@@ -9673,24 +10066,27 @@
         <v>438</v>
       </c>
       <c r="Q133" s="0" t="s">
+        <v>438</v>
+      </c>
+      <c r="R133" s="0" t="s">
         <v>439</v>
       </c>
-      <c r="R133" s="0" t="s">
+      <c r="S133" s="0" t="s">
         <v>440</v>
       </c>
-      <c r="S133" s="0" t="s">
+      <c r="T133" s="0" t="s">
         <v>441</v>
       </c>
-      <c r="T133" s="0" t="s">
+      <c r="U133" s="0" t="s">
         <v>442</v>
       </c>
-      <c r="U133" s="0" t="s">
+      <c r="V133" s="0" t="s">
         <v>443</v>
       </c>
-      <c r="V133" s="0" t="s">
+      <c r="W133" s="0" t="s">
         <v>444</v>
       </c>
-      <c r="W133" s="0" t="s">
+      <c r="X133" s="0" t="s">
         <v>42</v>
       </c>
       <c r="Y133" s="0" t="n">
@@ -9729,7 +10125,7 @@
         <v>439</v>
       </c>
       <c r="K134" s="0" t="n">
-        <v>6.5e3</v>
+        <v>350.0</v>
       </c>
       <c r="L134" s="0" t="n">
         <v>10</v>
@@ -9743,6 +10139,9 @@
       <c r="O134" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P134" s="0" t="s">
+        <v>439</v>
+      </c>
       <c r="Y134" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -9779,7 +10178,7 @@
         <v>440</v>
       </c>
       <c r="K135" s="0" t="n">
-        <v>7.5e3</v>
+        <v>450.0</v>
       </c>
       <c r="L135" s="0" t="n">
         <v>10</v>
@@ -9793,6 +10192,9 @@
       <c r="O135" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P135" s="0" t="s">
+        <v>440</v>
+      </c>
       <c r="Y135" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -9829,7 +10231,7 @@
         <v>444</v>
       </c>
       <c r="K136" s="0" t="n">
-        <v>3.5e3</v>
+        <v>650.0</v>
       </c>
       <c r="L136" s="0" t="n">
         <v>10</v>
@@ -9843,6 +10245,9 @@
       <c r="O136" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P136" s="0" t="s">
+        <v>444</v>
+      </c>
       <c r="Y136" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -9879,7 +10284,7 @@
         <v>450</v>
       </c>
       <c r="K137" s="0" t="n">
-        <v>4.5e3</v>
+        <v>750.0</v>
       </c>
       <c r="L137" s="0" t="n">
         <v>10</v>
@@ -9893,6 +10298,9 @@
       <c r="O137" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P137" s="0" t="s">
+        <v>450</v>
+      </c>
       <c r="Y137" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -9920,7 +10328,7 @@
         <v>453</v>
       </c>
       <c r="K138" s="0" t="n">
-        <v>3.0e3</v>
+        <v>300.0</v>
       </c>
       <c r="L138" s="0" t="n">
         <v>10</v>
@@ -9938,24 +10346,27 @@
         <v>453</v>
       </c>
       <c r="Q138" s="0" t="s">
+        <v>453</v>
+      </c>
+      <c r="R138" s="0" t="s">
         <v>454</v>
       </c>
-      <c r="R138" s="0" t="s">
+      <c r="S138" s="0" t="s">
         <v>455</v>
       </c>
-      <c r="S138" s="0" t="s">
+      <c r="T138" s="0" t="s">
         <v>456</v>
       </c>
-      <c r="T138" s="0" t="s">
+      <c r="U138" s="0" t="s">
         <v>457</v>
       </c>
-      <c r="U138" s="0" t="s">
+      <c r="V138" s="0" t="s">
         <v>458</v>
       </c>
-      <c r="V138" s="0" t="s">
+      <c r="W138" s="0" t="s">
         <v>459</v>
       </c>
-      <c r="W138" s="0" t="s">
+      <c r="X138" s="0" t="s">
         <v>460</v>
       </c>
       <c r="Y138" s="0" t="n">
@@ -9994,7 +10405,7 @@
         <v>463</v>
       </c>
       <c r="K139" s="0" t="n">
-        <v>3.0e3</v>
+        <v>300.0</v>
       </c>
       <c r="L139" s="0" t="n">
         <v>10</v>
@@ -10008,6 +10419,9 @@
       <c r="O139" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P139" s="0" t="s">
+        <v>463</v>
+      </c>
       <c r="Y139" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -10044,7 +10458,7 @@
         <v>465</v>
       </c>
       <c r="K140" s="0" t="n">
-        <v>3.0e3</v>
+        <v>300.0</v>
       </c>
       <c r="L140" s="0" t="n">
         <v>10</v>
@@ -10058,6 +10472,9 @@
       <c r="O140" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P140" s="0" t="s">
+        <v>465</v>
+      </c>
       <c r="Y140" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -10094,7 +10511,7 @@
         <v>467</v>
       </c>
       <c r="K141" s="0" t="n">
-        <v>3.0e3</v>
+        <v>300.0</v>
       </c>
       <c r="L141" s="0" t="n">
         <v>10</v>
@@ -10108,6 +10525,9 @@
       <c r="O141" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P141" s="0" t="s">
+        <v>467</v>
+      </c>
       <c r="Y141" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -10135,7 +10555,7 @@
         <v>470</v>
       </c>
       <c r="K142" s="0" t="n">
-        <v>1.75e4</v>
+        <v>1750.0</v>
       </c>
       <c r="L142" s="0" t="n">
         <v>10</v>
@@ -10153,19 +10573,19 @@
         <v>470</v>
       </c>
       <c r="Q142" s="0" t="s">
+        <v>470</v>
+      </c>
+      <c r="R142" s="0" t="s">
         <v>471</v>
       </c>
-      <c r="R142" s="0" t="s">
+      <c r="S142" s="0" t="s">
         <v>472</v>
       </c>
-      <c r="S142" s="0" t="s">
+      <c r="T142" s="0" t="s">
         <v>473</v>
       </c>
-      <c r="T142" s="0" t="s">
+      <c r="U142" s="0" t="s">
         <v>474</v>
-      </c>
-      <c r="U142" s="0" t="s">
-        <v>42</v>
       </c>
       <c r="V142" s="0" t="s">
         <v>42</v>
@@ -10173,6 +10593,9 @@
       <c r="W142" s="0" t="s">
         <v>42</v>
       </c>
+      <c r="X142" s="0" t="s">
+        <v>42</v>
+      </c>
       <c r="Y142" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -10203,13 +10626,13 @@
         <v>60</v>
       </c>
       <c r="G143" s="0" t="s">
-        <v>270</v>
+        <v>193</v>
       </c>
       <c r="H143" s="0" t="s">
         <v>474</v>
       </c>
       <c r="K143" s="0" t="n">
-        <v>1.75e4</v>
+        <v>3.5e3</v>
       </c>
       <c r="L143" s="0" t="n">
         <v>10</v>
@@ -10223,6 +10646,9 @@
       <c r="O143" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P143" s="0" t="s">
+        <v>474</v>
+      </c>
       <c r="Y143" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -10253,13 +10679,13 @@
         <v>60</v>
       </c>
       <c r="G144" s="0" t="s">
-        <v>193</v>
+        <v>270</v>
       </c>
       <c r="H144" s="0" t="s">
         <v>470</v>
       </c>
       <c r="K144" s="0" t="n">
-        <v>3.5e4</v>
+        <v>1750.0</v>
       </c>
       <c r="L144" s="0" t="n">
         <v>10</v>
@@ -10273,6 +10699,9 @@
       <c r="O144" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P144" s="0" t="s">
+        <v>470</v>
+      </c>
       <c r="Y144" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -10300,7 +10729,7 @@
         <v>478</v>
       </c>
       <c r="K145" s="0" t="n">
-        <v>5990.0</v>
+        <v>599.0</v>
       </c>
       <c r="L145" s="0" t="n">
         <v>10</v>
@@ -10318,26 +10747,29 @@
         <v>478</v>
       </c>
       <c r="Q145" s="0" t="s">
+        <v>478</v>
+      </c>
+      <c r="R145" s="0" t="s">
         <v>479</v>
       </c>
-      <c r="R145" s="0" t="s">
+      <c r="S145" s="0" t="s">
         <v>480</v>
       </c>
-      <c r="S145" s="0" t="s">
+      <c r="T145" s="0" t="s">
         <v>481</v>
       </c>
-      <c r="T145" s="0" t="s">
+      <c r="U145" s="0" t="s">
         <v>482</v>
       </c>
-      <c r="U145" s="0" t="s">
+      <c r="V145" s="0" t="s">
         <v>483</v>
-      </c>
-      <c r="V145" s="0" t="s">
-        <v>42</v>
       </c>
       <c r="W145" s="0" t="s">
         <v>42</v>
       </c>
+      <c r="X145" s="0" t="s">
+        <v>42</v>
+      </c>
       <c r="Y145" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -10374,7 +10806,7 @@
         <v>486</v>
       </c>
       <c r="K146" s="0" t="n">
-        <v>5990.0</v>
+        <v>1999.0</v>
       </c>
       <c r="L146" s="0" t="n">
         <v>10</v>
@@ -10388,6 +10820,9 @@
       <c r="O146" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P146" s="0" t="s">
+        <v>486</v>
+      </c>
       <c r="Y146" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -10424,7 +10859,7 @@
         <v>488</v>
       </c>
       <c r="K147" s="0" t="n">
-        <v>9990.0</v>
+        <v>599.0</v>
       </c>
       <c r="L147" s="0" t="n">
         <v>10</v>
@@ -10438,6 +10873,9 @@
       <c r="O147" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P147" s="0" t="s">
+        <v>488</v>
+      </c>
       <c r="Y147" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -10474,7 +10912,7 @@
         <v>490</v>
       </c>
       <c r="K148" s="0" t="n">
-        <v>19990.0</v>
+        <v>999.0</v>
       </c>
       <c r="L148" s="0" t="n">
         <v>10</v>
@@ -10488,6 +10926,9 @@
       <c r="O148" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P148" s="0" t="s">
+        <v>490</v>
+      </c>
       <c r="Y148" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -10515,7 +10956,7 @@
         <v>133</v>
       </c>
       <c r="K149" s="0" t="n">
-        <v>1.75e4</v>
+        <v>1750.0</v>
       </c>
       <c r="L149" s="0" t="n">
         <v>10</v>
@@ -10533,16 +10974,16 @@
         <v>133</v>
       </c>
       <c r="Q149" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="R149" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="R149" s="0" t="s">
+      <c r="S149" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="S149" s="0" t="s">
+      <c r="T149" s="0" t="s">
         <v>131</v>
-      </c>
-      <c r="T149" s="0" t="s">
-        <v>42</v>
       </c>
       <c r="U149" s="0" t="s">
         <v>42</v>
@@ -10553,6 +10994,9 @@
       <c r="W149" s="0" t="s">
         <v>42</v>
       </c>
+      <c r="X149" s="0" t="s">
+        <v>42</v>
+      </c>
       <c r="Y149" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -10589,7 +11033,7 @@
         <v>133</v>
       </c>
       <c r="K150" s="0" t="n">
-        <v>3.5e4</v>
+        <v>1750.0</v>
       </c>
       <c r="L150" s="0" t="n">
         <v>10</v>
@@ -10603,6 +11047,9 @@
       <c r="O150" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P150" s="0" t="s">
+        <v>133</v>
+      </c>
       <c r="Y150" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -10639,7 +11086,7 @@
         <v>134</v>
       </c>
       <c r="K151" s="0" t="n">
-        <v>3.0e4</v>
+        <v>3.5e3</v>
       </c>
       <c r="L151" s="0" t="n">
         <v>10</v>
@@ -10653,6 +11100,9 @@
       <c r="O151" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P151" s="0" t="s">
+        <v>134</v>
+      </c>
       <c r="Y151" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -10689,7 +11139,7 @@
         <v>42</v>
       </c>
       <c r="K152" s="0" t="n">
-        <v>6.0e4</v>
+        <v>3.0e3</v>
       </c>
       <c r="L152" s="0" t="n">
         <v>10</v>
@@ -10703,6 +11153,9 @@
       <c r="O152" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P152" s="0" t="s">
+        <v>42</v>
+      </c>
       <c r="Y152" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -10739,7 +11192,7 @@
         <v>42</v>
       </c>
       <c r="K153" s="0" t="n">
-        <v>1.75e4</v>
+        <v>6.0e3</v>
       </c>
       <c r="L153" s="0" t="n">
         <v>10</v>
@@ -10753,6 +11206,9 @@
       <c r="O153" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P153" s="0" t="s">
+        <v>42</v>
+      </c>
       <c r="Y153" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -10780,7 +11236,7 @@
         <v>500</v>
       </c>
       <c r="K154" s="0" t="n">
-        <v>5.0e3</v>
+        <v>500.0</v>
       </c>
       <c r="L154" s="0" t="n">
         <v>10</v>
@@ -10798,24 +11254,27 @@
         <v>500</v>
       </c>
       <c r="Q154" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="R154" s="0" t="s">
         <v>501</v>
       </c>
-      <c r="R154" s="0" t="s">
+      <c r="S154" s="0" t="s">
         <v>502</v>
       </c>
-      <c r="S154" s="0" t="s">
+      <c r="T154" s="0" t="s">
         <v>503</v>
       </c>
-      <c r="T154" s="0" t="s">
+      <c r="U154" s="0" t="s">
         <v>504</v>
       </c>
-      <c r="U154" s="0" t="s">
+      <c r="V154" s="0" t="s">
         <v>505</v>
       </c>
-      <c r="V154" s="0" t="s">
+      <c r="W154" s="0" t="s">
         <v>506</v>
       </c>
-      <c r="W154" s="0" t="s">
+      <c r="X154" s="0" t="s">
         <v>507</v>
       </c>
       <c r="Y154" s="0" t="n">
@@ -10854,7 +11313,7 @@
         <v>510</v>
       </c>
       <c r="K155" s="0" t="n">
-        <v>5.0e3</v>
+        <v>1350.0</v>
       </c>
       <c r="L155" s="0" t="n">
         <v>10</v>
@@ -10868,6 +11327,9 @@
       <c r="O155" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P155" s="0" t="s">
+        <v>510</v>
+      </c>
       <c r="Y155" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -10904,7 +11366,7 @@
         <v>512</v>
       </c>
       <c r="K156" s="0" t="n">
-        <v>5.0e3</v>
+        <v>1350.0</v>
       </c>
       <c r="L156" s="0" t="n">
         <v>10</v>
@@ -10918,6 +11380,9 @@
       <c r="O156" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P156" s="0" t="s">
+        <v>512</v>
+      </c>
       <c r="Y156" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -10954,7 +11419,7 @@
         <v>514</v>
       </c>
       <c r="K157" s="0" t="n">
-        <v>1.1e4</v>
+        <v>500.0</v>
       </c>
       <c r="L157" s="0" t="n">
         <v>10</v>
@@ -10968,6 +11433,9 @@
       <c r="O157" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P157" s="0" t="s">
+        <v>514</v>
+      </c>
       <c r="Y157" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -11004,7 +11472,7 @@
         <v>516</v>
       </c>
       <c r="K158" s="0" t="n">
-        <v>1.35e4</v>
+        <v>500.0</v>
       </c>
       <c r="L158" s="0" t="n">
         <v>10</v>
@@ -11018,6 +11486,9 @@
       <c r="O158" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P158" s="0" t="s">
+        <v>516</v>
+      </c>
       <c r="Y158" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -11054,7 +11525,7 @@
         <v>518</v>
       </c>
       <c r="K159" s="0" t="n">
-        <v>5.0e3</v>
+        <v>500.0</v>
       </c>
       <c r="L159" s="0" t="n">
         <v>10</v>
@@ -11068,6 +11539,9 @@
       <c r="O159" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P159" s="0" t="s">
+        <v>518</v>
+      </c>
       <c r="Y159" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -11104,7 +11578,7 @@
         <v>520</v>
       </c>
       <c r="K160" s="0" t="n">
-        <v>1.35e4</v>
+        <v>1.1e3</v>
       </c>
       <c r="L160" s="0" t="n">
         <v>10</v>
@@ -11118,6 +11592,9 @@
       <c r="O160" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P160" s="0" t="s">
+        <v>520</v>
+      </c>
       <c r="Y160" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -11154,7 +11631,7 @@
         <v>522</v>
       </c>
       <c r="K161" s="0" t="n">
-        <v>5.0e3</v>
+        <v>500.0</v>
       </c>
       <c r="L161" s="0" t="n">
         <v>10</v>
@@ -11168,6 +11645,9 @@
       <c r="O161" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P161" s="0" t="s">
+        <v>522</v>
+      </c>
       <c r="Y161" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -11204,7 +11684,7 @@
         <v>524</v>
       </c>
       <c r="K162" s="0" t="n">
-        <v>1.75e4</v>
+        <v>1750.0</v>
       </c>
       <c r="L162" s="0" t="n">
         <v>10</v>
@@ -11218,6 +11698,9 @@
       <c r="O162" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P162" s="0" t="s">
+        <v>524</v>
+      </c>
       <c r="Y162" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -11254,7 +11737,7 @@
         <v>526</v>
       </c>
       <c r="K163" s="0" t="n">
-        <v>5.0e3</v>
+        <v>500.0</v>
       </c>
       <c r="L163" s="0" t="n">
         <v>10</v>
@@ -11268,6 +11751,9 @@
       <c r="O163" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P163" s="0" t="s">
+        <v>526</v>
+      </c>
       <c r="Y163" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -11295,7 +11781,7 @@
         <v>529</v>
       </c>
       <c r="K164" s="0" t="n">
-        <v>6.5e3</v>
+        <v>650.0</v>
       </c>
       <c r="L164" s="0" t="n">
         <v>10</v>
@@ -11313,24 +11799,27 @@
         <v>529</v>
       </c>
       <c r="Q164" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="R164" s="0" t="s">
         <v>530</v>
       </c>
-      <c r="R164" s="0" t="s">
+      <c r="S164" s="0" t="s">
         <v>531</v>
       </c>
-      <c r="S164" s="0" t="s">
+      <c r="T164" s="0" t="s">
         <v>532</v>
       </c>
-      <c r="T164" s="0" t="s">
+      <c r="U164" s="0" t="s">
         <v>533</v>
       </c>
-      <c r="U164" s="0" t="s">
+      <c r="V164" s="0" t="s">
         <v>534</v>
       </c>
-      <c r="V164" s="0" t="s">
+      <c r="W164" s="0" t="s">
         <v>535</v>
       </c>
-      <c r="W164" s="0" t="s">
+      <c r="X164" s="0" t="s">
         <v>536</v>
       </c>
       <c r="Y164" s="0" t="n">
@@ -11369,7 +11858,7 @@
         <v>529</v>
       </c>
       <c r="K165" s="0" t="n">
-        <v>6.5e3</v>
+        <v>650.0</v>
       </c>
       <c r="L165" s="0" t="n">
         <v>10</v>
@@ -11383,6 +11872,9 @@
       <c r="O165" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P165" s="0" t="s">
+        <v>529</v>
+      </c>
       <c r="Y165" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -11419,7 +11911,7 @@
         <v>540</v>
       </c>
       <c r="K166" s="0" t="n">
-        <v>6.5e3</v>
+        <v>650.0</v>
       </c>
       <c r="L166" s="0" t="n">
         <v>10</v>
@@ -11433,6 +11925,9 @@
       <c r="O166" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P166" s="0" t="s">
+        <v>540</v>
+      </c>
       <c r="Y166" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -11469,7 +11964,7 @@
         <v>542</v>
       </c>
       <c r="K167" s="0" t="n">
-        <v>6.5e3</v>
+        <v>650.0</v>
       </c>
       <c r="L167" s="0" t="n">
         <v>10</v>
@@ -11483,6 +11978,9 @@
       <c r="O167" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P167" s="0" t="s">
+        <v>542</v>
+      </c>
       <c r="Y167" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -11519,7 +12017,7 @@
         <v>544</v>
       </c>
       <c r="K168" s="0" t="n">
-        <v>6.5e3</v>
+        <v>650.0</v>
       </c>
       <c r="L168" s="0" t="n">
         <v>10</v>
@@ -11533,6 +12031,9 @@
       <c r="O168" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P168" s="0" t="s">
+        <v>544</v>
+      </c>
       <c r="Y168" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -11569,7 +12070,7 @@
         <v>546</v>
       </c>
       <c r="K169" s="0" t="n">
-        <v>6.5e3</v>
+        <v>650.0</v>
       </c>
       <c r="L169" s="0" t="n">
         <v>10</v>
@@ -11583,6 +12084,9 @@
       <c r="O169" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P169" s="0" t="s">
+        <v>546</v>
+      </c>
       <c r="Y169" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -11610,7 +12114,7 @@
         <v>549</v>
       </c>
       <c r="K170" s="0" t="n">
-        <v>90.0</v>
+        <v>9.0</v>
       </c>
       <c r="L170" s="0" t="n">
         <v>10</v>
@@ -11628,10 +12132,10 @@
         <v>549</v>
       </c>
       <c r="Q170" s="0" t="s">
+        <v>549</v>
+      </c>
+      <c r="R170" s="0" t="s">
         <v>550</v>
-      </c>
-      <c r="R170" s="0" t="s">
-        <v>42</v>
       </c>
       <c r="S170" s="0" t="s">
         <v>42</v>
@@ -11648,6 +12152,9 @@
       <c r="W170" s="0" t="s">
         <v>42</v>
       </c>
+      <c r="X170" s="0" t="s">
+        <v>42</v>
+      </c>
       <c r="Y170" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -11684,7 +12191,7 @@
         <v>553</v>
       </c>
       <c r="K171" s="0" t="n">
-        <v>90.0</v>
+        <v>9.0</v>
       </c>
       <c r="L171" s="0" t="n">
         <v>10</v>
@@ -11698,6 +12205,9 @@
       <c r="O171" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P171" s="0" t="s">
+        <v>553</v>
+      </c>
       <c r="Y171" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -11734,7 +12244,7 @@
         <v>555</v>
       </c>
       <c r="K172" s="0" t="n">
-        <v>190.0</v>
+        <v>19.0</v>
       </c>
       <c r="L172" s="0" t="n">
         <v>10</v>
@@ -11748,6 +12258,9 @@
       <c r="O172" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P172" s="0" t="s">
+        <v>555</v>
+      </c>
       <c r="Y172" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -11775,7 +12288,7 @@
         <v>558</v>
       </c>
       <c r="K173" s="0" t="n">
-        <v>3.5e3</v>
+        <v>350.0</v>
       </c>
       <c r="L173" s="0" t="n">
         <v>10</v>
@@ -11793,26 +12306,29 @@
         <v>558</v>
       </c>
       <c r="Q173" s="0" t="s">
+        <v>558</v>
+      </c>
+      <c r="R173" s="0" t="s">
         <v>559</v>
       </c>
-      <c r="R173" s="0" t="s">
+      <c r="S173" s="0" t="s">
         <v>560</v>
       </c>
-      <c r="S173" s="0" t="s">
+      <c r="T173" s="0" t="s">
         <v>561</v>
       </c>
-      <c r="T173" s="0" t="s">
+      <c r="U173" s="0" t="s">
         <v>562</v>
       </c>
-      <c r="U173" s="0" t="s">
+      <c r="V173" s="0" t="s">
         <v>563</v>
-      </c>
-      <c r="V173" s="0" t="s">
-        <v>42</v>
       </c>
       <c r="W173" s="0" t="s">
         <v>42</v>
       </c>
+      <c r="X173" s="0" t="s">
+        <v>42</v>
+      </c>
       <c r="Y173" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -11849,7 +12365,7 @@
         <v>566</v>
       </c>
       <c r="K174" s="0" t="n">
-        <v>3.5e3</v>
+        <v>350.0</v>
       </c>
       <c r="L174" s="0" t="n">
         <v>10</v>
@@ -11863,6 +12379,9 @@
       <c r="O174" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P174" s="0" t="s">
+        <v>566</v>
+      </c>
       <c r="Y174" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -11899,7 +12418,7 @@
         <v>568</v>
       </c>
       <c r="K175" s="0" t="n">
-        <v>3.5e3</v>
+        <v>350.0</v>
       </c>
       <c r="L175" s="0" t="n">
         <v>10</v>
@@ -11913,6 +12432,9 @@
       <c r="O175" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P175" s="0" t="s">
+        <v>568</v>
+      </c>
       <c r="Y175" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -11949,7 +12471,7 @@
         <v>570</v>
       </c>
       <c r="K176" s="0" t="n">
-        <v>3.5e3</v>
+        <v>350.0</v>
       </c>
       <c r="L176" s="0" t="n">
         <v>10</v>
@@ -11963,6 +12485,9 @@
       <c r="O176" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P176" s="0" t="s">
+        <v>570</v>
+      </c>
       <c r="Y176" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -11990,7 +12515,7 @@
         <v>573</v>
       </c>
       <c r="K177" s="0" t="n">
-        <v>3.5e3</v>
+        <v>350.0</v>
       </c>
       <c r="L177" s="0" t="n">
         <v>10</v>
@@ -12008,16 +12533,16 @@
         <v>573</v>
       </c>
       <c r="Q177" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="R177" s="0" t="s">
         <v>574</v>
       </c>
-      <c r="R177" s="0" t="s">
+      <c r="S177" s="0" t="s">
         <v>575</v>
       </c>
-      <c r="S177" s="0" t="s">
+      <c r="T177" s="0" t="s">
         <v>576</v>
-      </c>
-      <c r="T177" s="0" t="s">
-        <v>42</v>
       </c>
       <c r="U177" s="0" t="s">
         <v>42</v>
@@ -12028,6 +12553,9 @@
       <c r="W177" s="0" t="s">
         <v>42</v>
       </c>
+      <c r="X177" s="0" t="s">
+        <v>42</v>
+      </c>
       <c r="Y177" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -12064,7 +12592,7 @@
         <v>579</v>
       </c>
       <c r="K178" s="0" t="n">
-        <v>3.5e3</v>
+        <v>350.0</v>
       </c>
       <c r="L178" s="0" t="n">
         <v>10</v>
@@ -12078,6 +12606,9 @@
       <c r="O178" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P178" s="0" t="s">
+        <v>579</v>
+      </c>
       <c r="Y178" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -12114,7 +12645,7 @@
         <v>581</v>
       </c>
       <c r="K179" s="0" t="n">
-        <v>6.0e3</v>
+        <v>600.0</v>
       </c>
       <c r="L179" s="0" t="n">
         <v>10</v>
@@ -12128,6 +12659,9 @@
       <c r="O179" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P179" s="0" t="s">
+        <v>581</v>
+      </c>
       <c r="Y179" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -12164,7 +12698,7 @@
         <v>583</v>
       </c>
       <c r="K180" s="0" t="n">
-        <v>9.8e3</v>
+        <v>980.0</v>
       </c>
       <c r="L180" s="0" t="n">
         <v>10</v>
@@ -12178,6 +12712,9 @@
       <c r="O180" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P180" s="0" t="s">
+        <v>583</v>
+      </c>
       <c r="Y180" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -12205,7 +12742,7 @@
         <v>586</v>
       </c>
       <c r="K181" s="0" t="n">
-        <v>6.8e3</v>
+        <v>680.0</v>
       </c>
       <c r="L181" s="0" t="n">
         <v>10</v>
@@ -12223,24 +12760,27 @@
         <v>586</v>
       </c>
       <c r="Q181" s="0" t="s">
+        <v>586</v>
+      </c>
+      <c r="R181" s="0" t="s">
         <v>587</v>
       </c>
-      <c r="R181" s="0" t="s">
+      <c r="S181" s="0" t="s">
         <v>588</v>
       </c>
-      <c r="S181" s="0" t="s">
+      <c r="T181" s="0" t="s">
         <v>589</v>
       </c>
-      <c r="T181" s="0" t="s">
+      <c r="U181" s="0" t="s">
         <v>590</v>
       </c>
-      <c r="U181" s="0" t="s">
+      <c r="V181" s="0" t="s">
         <v>591</v>
       </c>
-      <c r="V181" s="0" t="s">
+      <c r="W181" s="0" t="s">
         <v>592</v>
       </c>
-      <c r="W181" s="0" t="s">
+      <c r="X181" s="0" t="s">
         <v>593</v>
       </c>
       <c r="Y181" s="0" t="n">
@@ -12279,7 +12819,7 @@
         <v>595</v>
       </c>
       <c r="K182" s="0" t="n">
-        <v>6.8e3</v>
+        <v>680.0</v>
       </c>
       <c r="L182" s="0" t="n">
         <v>10</v>
@@ -12293,6 +12833,9 @@
       <c r="O182" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P182" s="0" t="s">
+        <v>595</v>
+      </c>
       <c r="Y182" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -12329,7 +12872,7 @@
         <v>596</v>
       </c>
       <c r="K183" s="0" t="n">
-        <v>1.28e4</v>
+        <v>1280.0</v>
       </c>
       <c r="L183" s="0" t="n">
         <v>10</v>
@@ -12343,6 +12886,9 @@
       <c r="O183" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P183" s="0" t="s">
+        <v>596</v>
+      </c>
       <c r="Y183" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -12370,7 +12916,7 @@
         <v>599</v>
       </c>
       <c r="K184" s="0" t="n">
-        <v>6.5e3</v>
+        <v>650.0</v>
       </c>
       <c r="L184" s="0" t="n">
         <v>10</v>
@@ -12388,26 +12934,29 @@
         <v>599</v>
       </c>
       <c r="Q184" s="0" t="s">
+        <v>599</v>
+      </c>
+      <c r="R184" s="0" t="s">
         <v>600</v>
       </c>
-      <c r="R184" s="0" t="s">
+      <c r="S184" s="0" t="s">
         <v>601</v>
       </c>
-      <c r="S184" s="0" t="s">
+      <c r="T184" s="0" t="s">
         <v>602</v>
       </c>
-      <c r="T184" s="0" t="s">
+      <c r="U184" s="0" t="s">
         <v>603</v>
       </c>
-      <c r="U184" s="0" t="s">
+      <c r="V184" s="0" t="s">
         <v>604</v>
-      </c>
-      <c r="V184" s="0" t="s">
-        <v>42</v>
       </c>
       <c r="W184" s="0" t="s">
         <v>42</v>
       </c>
+      <c r="X184" s="0" t="s">
+        <v>42</v>
+      </c>
       <c r="Y184" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -12438,13 +12987,13 @@
         <v>60</v>
       </c>
       <c r="G185" s="0" t="s">
-        <v>606</v>
+        <v>155</v>
       </c>
       <c r="H185" s="0" t="s">
         <v>599</v>
       </c>
       <c r="K185" s="0" t="n">
-        <v>6.5e3</v>
+        <v>650.0</v>
       </c>
       <c r="L185" s="0" t="n">
         <v>10</v>
@@ -12458,6 +13007,9 @@
       <c r="O185" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P185" s="0" t="s">
+        <v>599</v>
+      </c>
       <c r="Y185" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -12488,13 +13040,13 @@
         <v>60</v>
       </c>
       <c r="G186" s="0" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H186" s="0" t="s">
         <v>600</v>
       </c>
       <c r="K186" s="0" t="n">
-        <v>6.5e3</v>
+        <v>650.0</v>
       </c>
       <c r="L186" s="0" t="n">
         <v>10</v>
@@ -12508,6 +13060,9 @@
       <c r="O186" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P186" s="0" t="s">
+        <v>600</v>
+      </c>
       <c r="Y186" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -12538,13 +13093,13 @@
         <v>60</v>
       </c>
       <c r="G187" s="0" t="s">
-        <v>236</v>
+        <v>607</v>
       </c>
       <c r="H187" s="0" t="s">
         <v>601</v>
       </c>
       <c r="K187" s="0" t="n">
-        <v>6.5e3</v>
+        <v>650.0</v>
       </c>
       <c r="L187" s="0" t="n">
         <v>10</v>
@@ -12558,6 +13113,9 @@
       <c r="O187" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P187" s="0" t="s">
+        <v>601</v>
+      </c>
       <c r="Y187" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -12588,13 +13146,13 @@
         <v>60</v>
       </c>
       <c r="G188" s="0" t="s">
-        <v>151</v>
+        <v>238</v>
       </c>
       <c r="H188" s="0" t="s">
         <v>602</v>
       </c>
       <c r="K188" s="0" t="n">
-        <v>6.5e3</v>
+        <v>650.0</v>
       </c>
       <c r="L188" s="0" t="n">
         <v>10</v>
@@ -12608,6 +13166,9 @@
       <c r="O188" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P188" s="0" t="s">
+        <v>602</v>
+      </c>
       <c r="Y188" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -12638,13 +13199,13 @@
         <v>60</v>
       </c>
       <c r="G189" s="0" t="s">
-        <v>608</v>
+        <v>151</v>
       </c>
       <c r="H189" s="0" t="s">
         <v>603</v>
       </c>
       <c r="K189" s="0" t="n">
-        <v>6.5e3</v>
+        <v>650.0</v>
       </c>
       <c r="L189" s="0" t="n">
         <v>10</v>
@@ -12658,6 +13219,9 @@
       <c r="O189" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P189" s="0" t="s">
+        <v>603</v>
+      </c>
       <c r="Y189" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -12688,13 +13252,13 @@
         <v>60</v>
       </c>
       <c r="G190" s="0" t="s">
-        <v>155</v>
+        <v>608</v>
       </c>
       <c r="H190" s="0" t="s">
         <v>604</v>
       </c>
       <c r="K190" s="0" t="n">
-        <v>6.5e3</v>
+        <v>650.0</v>
       </c>
       <c r="L190" s="0" t="n">
         <v>10</v>
@@ -12708,6 +13272,9 @@
       <c r="O190" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P190" s="0" t="s">
+        <v>604</v>
+      </c>
       <c r="Y190" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -12735,7 +13302,7 @@
         <v>611</v>
       </c>
       <c r="K191" s="0" t="n">
-        <v>2.8e3</v>
+        <v>280.0</v>
       </c>
       <c r="L191" s="0" t="n">
         <v>10</v>
@@ -12753,26 +13320,29 @@
         <v>611</v>
       </c>
       <c r="Q191" s="0" t="s">
+        <v>611</v>
+      </c>
+      <c r="R191" s="0" t="s">
         <v>612</v>
       </c>
-      <c r="R191" s="0" t="s">
+      <c r="S191" s="0" t="s">
         <v>613</v>
       </c>
-      <c r="S191" s="0" t="s">
+      <c r="T191" s="0" t="s">
         <v>614</v>
       </c>
-      <c r="T191" s="0" t="s">
+      <c r="U191" s="0" t="s">
         <v>615</v>
       </c>
-      <c r="U191" s="0" t="s">
+      <c r="V191" s="0" t="s">
         <v>616</v>
-      </c>
-      <c r="V191" s="0" t="s">
-        <v>42</v>
       </c>
       <c r="W191" s="0" t="s">
         <v>42</v>
       </c>
+      <c r="X191" s="0" t="s">
+        <v>42</v>
+      </c>
       <c r="Y191" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -12809,7 +13379,7 @@
         <v>612</v>
       </c>
       <c r="K192" s="0" t="n">
-        <v>2.8e3</v>
+        <v>280.0</v>
       </c>
       <c r="L192" s="0" t="n">
         <v>10</v>
@@ -12823,6 +13393,9 @@
       <c r="O192" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P192" s="0" t="s">
+        <v>612</v>
+      </c>
       <c r="Y192" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -12859,7 +13432,7 @@
         <v>42</v>
       </c>
       <c r="K193" s="0" t="n">
-        <v>2.8e3</v>
+        <v>280.0</v>
       </c>
       <c r="L193" s="0" t="n">
         <v>10</v>
@@ -12873,6 +13446,9 @@
       <c r="O193" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P193" s="0" t="s">
+        <v>42</v>
+      </c>
       <c r="Y193" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -12900,7 +13476,7 @@
         <v>622</v>
       </c>
       <c r="K194" s="0" t="n">
-        <v>3.2e4</v>
+        <v>3.2e3</v>
       </c>
       <c r="L194" s="0" t="n">
         <v>10</v>
@@ -12918,24 +13494,27 @@
         <v>622</v>
       </c>
       <c r="Q194" s="0" t="s">
+        <v>622</v>
+      </c>
+      <c r="R194" s="0" t="s">
         <v>623</v>
       </c>
-      <c r="R194" s="0" t="s">
+      <c r="S194" s="0" t="s">
         <v>624</v>
       </c>
-      <c r="S194" s="0" t="s">
+      <c r="T194" s="0" t="s">
         <v>625</v>
       </c>
-      <c r="T194" s="0" t="s">
+      <c r="U194" s="0" t="s">
         <v>626</v>
       </c>
-      <c r="U194" s="0" t="s">
+      <c r="V194" s="0" t="s">
         <v>627</v>
       </c>
-      <c r="V194" s="0" t="s">
+      <c r="W194" s="0" t="s">
         <v>628</v>
       </c>
-      <c r="W194" s="0" t="s">
+      <c r="X194" s="0" t="s">
         <v>629</v>
       </c>
       <c r="Y194" s="0" t="n">
@@ -12974,7 +13553,7 @@
         <v>632</v>
       </c>
       <c r="K195" s="0" t="n">
-        <v>4.0e4</v>
+        <v>3.2e3</v>
       </c>
       <c r="L195" s="0" t="n">
         <v>10</v>
@@ -12988,6 +13567,9 @@
       <c r="O195" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P195" s="0" t="s">
+        <v>632</v>
+      </c>
       <c r="Y195" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -13024,7 +13606,7 @@
         <v>634</v>
       </c>
       <c r="K196" s="0" t="n">
-        <v>3.2e4</v>
+        <v>4.0e3</v>
       </c>
       <c r="L196" s="0" t="n">
         <v>10</v>
@@ -13038,6 +13620,9 @@
       <c r="O196" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P196" s="0" t="s">
+        <v>634</v>
+      </c>
       <c r="Y196" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -13065,7 +13650,7 @@
         <v>637</v>
       </c>
       <c r="K197" s="0" t="n">
-        <v>1.1e4</v>
+        <v>1.1e3</v>
       </c>
       <c r="L197" s="0" t="n">
         <v>10</v>
@@ -13083,24 +13668,27 @@
         <v>637</v>
       </c>
       <c r="Q197" s="0" t="s">
+        <v>637</v>
+      </c>
+      <c r="R197" s="0" t="s">
         <v>638</v>
       </c>
-      <c r="R197" s="0" t="s">
+      <c r="S197" s="0" t="s">
         <v>639</v>
       </c>
-      <c r="S197" s="0" t="s">
+      <c r="T197" s="0" t="s">
         <v>640</v>
       </c>
-      <c r="T197" s="0" t="s">
+      <c r="U197" s="0" t="s">
         <v>641</v>
       </c>
-      <c r="U197" s="0" t="s">
+      <c r="V197" s="0" t="s">
         <v>642</v>
       </c>
-      <c r="V197" s="0" t="s">
+      <c r="W197" s="0" t="s">
         <v>643</v>
       </c>
-      <c r="W197" s="0" t="s">
+      <c r="X197" s="0" t="s">
         <v>42</v>
       </c>
       <c r="Y197" s="0" t="n">
@@ -13133,13 +13721,13 @@
         <v>60</v>
       </c>
       <c r="G198" s="0" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="H198" s="0" t="s">
         <v>641</v>
       </c>
       <c r="K198" s="0" t="n">
-        <v>1.1e4</v>
+        <v>1350.0</v>
       </c>
       <c r="L198" s="0" t="n">
         <v>10</v>
@@ -13153,6 +13741,9 @@
       <c r="O198" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P198" s="0" t="s">
+        <v>641</v>
+      </c>
       <c r="Y198" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -13189,7 +13780,7 @@
         <v>645</v>
       </c>
       <c r="K199" s="0" t="n">
-        <v>1.35e4</v>
+        <v>1.1e3</v>
       </c>
       <c r="L199" s="0" t="n">
         <v>10</v>
@@ -13203,6 +13794,9 @@
       <c r="O199" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P199" s="0" t="s">
+        <v>645</v>
+      </c>
       <c r="Y199" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -13230,7 +13824,7 @@
         <v>648</v>
       </c>
       <c r="K200" s="0" t="n">
-        <v>2.0e4</v>
+        <v>2.0e3</v>
       </c>
       <c r="L200" s="0" t="n">
         <v>10</v>
@@ -13248,19 +13842,19 @@
         <v>648</v>
       </c>
       <c r="Q200" s="0" t="s">
+        <v>648</v>
+      </c>
+      <c r="R200" s="0" t="s">
         <v>649</v>
       </c>
-      <c r="R200" s="0" t="s">
+      <c r="S200" s="0" t="s">
         <v>650</v>
       </c>
-      <c r="S200" s="0" t="s">
+      <c r="T200" s="0" t="s">
         <v>651</v>
       </c>
-      <c r="T200" s="0" t="s">
+      <c r="U200" s="0" t="s">
         <v>652</v>
-      </c>
-      <c r="U200" s="0" t="s">
-        <v>42</v>
       </c>
       <c r="V200" s="0" t="s">
         <v>42</v>
@@ -13268,6 +13862,9 @@
       <c r="W200" s="0" t="s">
         <v>42</v>
       </c>
+      <c r="X200" s="0" t="s">
+        <v>42</v>
+      </c>
       <c r="Y200" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -13304,7 +13901,7 @@
         <v>648</v>
       </c>
       <c r="K201" s="0" t="n">
-        <v>2.0e4</v>
+        <v>2.0e3</v>
       </c>
       <c r="L201" s="0" t="n">
         <v>10</v>
@@ -13318,6 +13915,9 @@
       <c r="O201" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P201" s="0" t="s">
+        <v>648</v>
+      </c>
       <c r="Y201" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -13354,7 +13954,7 @@
         <v>651</v>
       </c>
       <c r="K202" s="0" t="n">
-        <v>2.0e4</v>
+        <v>2.0e3</v>
       </c>
       <c r="L202" s="0" t="n">
         <v>10</v>
@@ -13368,6 +13968,9 @@
       <c r="O202" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P202" s="0" t="s">
+        <v>651</v>
+      </c>
       <c r="Y202" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -13395,7 +13998,7 @@
         <v>658</v>
       </c>
       <c r="K203" s="0" t="n">
-        <v>2.8e4</v>
+        <v>2.8e3</v>
       </c>
       <c r="L203" s="0" t="n">
         <v>10</v>
@@ -13413,24 +14016,27 @@
         <v>658</v>
       </c>
       <c r="Q203" s="0" t="s">
+        <v>658</v>
+      </c>
+      <c r="R203" s="0" t="s">
         <v>659</v>
       </c>
-      <c r="R203" s="0" t="s">
+      <c r="S203" s="0" t="s">
         <v>660</v>
       </c>
-      <c r="S203" s="0" t="s">
+      <c r="T203" s="0" t="s">
         <v>661</v>
       </c>
-      <c r="T203" s="0" t="s">
+      <c r="U203" s="0" t="s">
         <v>662</v>
       </c>
-      <c r="U203" s="0" t="s">
+      <c r="V203" s="0" t="s">
         <v>663</v>
       </c>
-      <c r="V203" s="0" t="s">
+      <c r="W203" s="0" t="s">
         <v>664</v>
       </c>
-      <c r="W203" s="0" t="s">
+      <c r="X203" s="0" t="s">
         <v>665</v>
       </c>
       <c r="Y203" s="0" t="n">
@@ -13463,13 +14069,13 @@
         <v>60</v>
       </c>
       <c r="G204" s="0" t="s">
-        <v>608</v>
+        <v>151</v>
       </c>
       <c r="H204" s="0" t="s">
         <v>665</v>
       </c>
       <c r="K204" s="0" t="n">
-        <v>2.8e4</v>
+        <v>2.8e3</v>
       </c>
       <c r="L204" s="0" t="n">
         <v>10</v>
@@ -13483,6 +14089,9 @@
       <c r="O204" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P204" s="0" t="s">
+        <v>665</v>
+      </c>
       <c r="Y204" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -13513,13 +14122,13 @@
         <v>60</v>
       </c>
       <c r="G205" s="0" t="s">
-        <v>155</v>
+        <v>608</v>
       </c>
       <c r="H205" s="0" t="s">
         <v>664</v>
       </c>
       <c r="K205" s="0" t="n">
-        <v>2.8e4</v>
+        <v>2.8e3</v>
       </c>
       <c r="L205" s="0" t="n">
         <v>10</v>
@@ -13533,6 +14142,9 @@
       <c r="O205" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P205" s="0" t="s">
+        <v>664</v>
+      </c>
       <c r="Y205" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -13563,13 +14175,13 @@
         <v>60</v>
       </c>
       <c r="G206" s="0" t="s">
-        <v>606</v>
+        <v>155</v>
       </c>
       <c r="H206" s="0" t="s">
         <v>667</v>
       </c>
       <c r="K206" s="0" t="n">
-        <v>2.8e4</v>
+        <v>2.8e3</v>
       </c>
       <c r="L206" s="0" t="n">
         <v>10</v>
@@ -13583,6 +14195,9 @@
       <c r="O206" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P206" s="0" t="s">
+        <v>667</v>
+      </c>
       <c r="Y206" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -13613,13 +14228,13 @@
         <v>60</v>
       </c>
       <c r="G207" s="0" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H207" s="0" t="s">
         <v>662</v>
       </c>
       <c r="K207" s="0" t="n">
-        <v>2.8e4</v>
+        <v>2.8e3</v>
       </c>
       <c r="L207" s="0" t="n">
         <v>10</v>
@@ -13633,6 +14248,9 @@
       <c r="O207" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P207" s="0" t="s">
+        <v>662</v>
+      </c>
       <c r="Y207" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -13663,13 +14281,13 @@
         <v>60</v>
       </c>
       <c r="G208" s="0" t="s">
-        <v>236</v>
+        <v>607</v>
       </c>
       <c r="H208" s="0" t="s">
         <v>661</v>
       </c>
       <c r="K208" s="0" t="n">
-        <v>2.8e4</v>
+        <v>2.8e3</v>
       </c>
       <c r="L208" s="0" t="n">
         <v>10</v>
@@ -13683,6 +14301,9 @@
       <c r="O208" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P208" s="0" t="s">
+        <v>661</v>
+      </c>
       <c r="Y208" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -13713,13 +14334,13 @@
         <v>60</v>
       </c>
       <c r="G209" s="0" t="s">
-        <v>151</v>
+        <v>238</v>
       </c>
       <c r="H209" s="0" t="s">
         <v>660</v>
       </c>
       <c r="K209" s="0" t="n">
-        <v>2.8e4</v>
+        <v>2.8e3</v>
       </c>
       <c r="L209" s="0" t="n">
         <v>10</v>
@@ -13733,6 +14354,9 @@
       <c r="O209" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P209" s="0" t="s">
+        <v>660</v>
+      </c>
       <c r="Y209" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -13760,7 +14384,7 @@
         <v>670</v>
       </c>
       <c r="K210" s="0" t="n">
-        <v>3.0e4</v>
+        <v>3.0e3</v>
       </c>
       <c r="L210" s="0" t="n">
         <v>10</v>
@@ -13778,16 +14402,16 @@
         <v>670</v>
       </c>
       <c r="Q210" s="0" t="s">
+        <v>670</v>
+      </c>
+      <c r="R210" s="0" t="s">
         <v>671</v>
       </c>
-      <c r="R210" s="0" t="s">
+      <c r="S210" s="0" t="s">
         <v>672</v>
       </c>
-      <c r="S210" s="0" t="s">
+      <c r="T210" s="0" t="s">
         <v>673</v>
-      </c>
-      <c r="T210" s="0" t="s">
-        <v>42</v>
       </c>
       <c r="U210" s="0" t="s">
         <v>42</v>
@@ -13798,6 +14422,9 @@
       <c r="W210" s="0" t="s">
         <v>42</v>
       </c>
+      <c r="X210" s="0" t="s">
+        <v>42</v>
+      </c>
       <c r="Y210" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -13834,7 +14461,7 @@
         <v>670</v>
       </c>
       <c r="K211" s="0" t="n">
-        <v>1.3e5</v>
+        <v>3.0e3</v>
       </c>
       <c r="L211" s="0" t="n">
         <v>10</v>
@@ -13848,6 +14475,9 @@
       <c r="O211" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P211" s="0" t="s">
+        <v>670</v>
+      </c>
       <c r="Y211" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -13884,7 +14514,7 @@
         <v>677</v>
       </c>
       <c r="K212" s="0" t="n">
-        <v>1.0e5</v>
+        <v>1.3e4</v>
       </c>
       <c r="L212" s="0" t="n">
         <v>10</v>
@@ -13898,6 +14528,9 @@
       <c r="O212" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P212" s="0" t="s">
+        <v>677</v>
+      </c>
       <c r="Y212" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -13934,7 +14567,7 @@
         <v>679</v>
       </c>
       <c r="K213" s="0" t="n">
-        <v>3.0e4</v>
+        <v>1.0e4</v>
       </c>
       <c r="L213" s="0" t="n">
         <v>10</v>
@@ -13948,6 +14581,9 @@
       <c r="O213" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P213" s="0" t="s">
+        <v>679</v>
+      </c>
       <c r="Y213" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -13975,7 +14611,7 @@
         <v>682</v>
       </c>
       <c r="K214" s="0" t="n">
-        <v>6.5e3</v>
+        <v>650.0</v>
       </c>
       <c r="L214" s="0" t="n">
         <v>10</v>
@@ -13993,26 +14629,29 @@
         <v>682</v>
       </c>
       <c r="Q214" s="0" t="s">
+        <v>682</v>
+      </c>
+      <c r="R214" s="0" t="s">
         <v>683</v>
       </c>
-      <c r="R214" s="0" t="s">
+      <c r="S214" s="0" t="s">
         <v>684</v>
       </c>
-      <c r="S214" s="0" t="s">
+      <c r="T214" s="0" t="s">
         <v>685</v>
       </c>
-      <c r="T214" s="0" t="s">
+      <c r="U214" s="0" t="s">
         <v>686</v>
       </c>
-      <c r="U214" s="0" t="s">
+      <c r="V214" s="0" t="s">
         <v>687</v>
-      </c>
-      <c r="V214" s="0" t="s">
-        <v>42</v>
       </c>
       <c r="W214" s="0" t="s">
         <v>42</v>
       </c>
+      <c r="X214" s="0" t="s">
+        <v>42</v>
+      </c>
       <c r="Y214" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -14043,13 +14682,13 @@
         <v>60</v>
       </c>
       <c r="G215" s="0" t="s">
-        <v>236</v>
+        <v>606</v>
       </c>
       <c r="H215" s="0" t="s">
         <v>683</v>
       </c>
       <c r="K215" s="0" t="n">
-        <v>6.5e3</v>
+        <v>650.0</v>
       </c>
       <c r="L215" s="0" t="n">
         <v>10</v>
@@ -14063,6 +14702,9 @@
       <c r="O215" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P215" s="0" t="s">
+        <v>683</v>
+      </c>
       <c r="Y215" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -14093,13 +14735,13 @@
         <v>60</v>
       </c>
       <c r="G216" s="0" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="H216" s="0" t="s">
         <v>682</v>
       </c>
       <c r="K216" s="0" t="n">
-        <v>6.5e3</v>
+        <v>650.0</v>
       </c>
       <c r="L216" s="0" t="n">
         <v>10</v>
@@ -14113,6 +14755,9 @@
       <c r="O216" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P216" s="0" t="s">
+        <v>682</v>
+      </c>
       <c r="Y216" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -14143,13 +14788,13 @@
         <v>60</v>
       </c>
       <c r="G217" s="0" t="s">
-        <v>608</v>
+        <v>238</v>
       </c>
       <c r="H217" s="0" t="s">
         <v>685</v>
       </c>
       <c r="K217" s="0" t="n">
-        <v>6.5e3</v>
+        <v>650.0</v>
       </c>
       <c r="L217" s="0" t="n">
         <v>10</v>
@@ -14163,6 +14808,9 @@
       <c r="O217" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P217" s="0" t="s">
+        <v>685</v>
+      </c>
       <c r="Y217" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -14193,13 +14841,13 @@
         <v>60</v>
       </c>
       <c r="G218" s="0" t="s">
-        <v>607</v>
+        <v>151</v>
       </c>
       <c r="H218" s="0" t="s">
         <v>686</v>
       </c>
       <c r="K218" s="0" t="n">
-        <v>6.5e3</v>
+        <v>650.0</v>
       </c>
       <c r="L218" s="0" t="n">
         <v>10</v>
@@ -14213,6 +14861,9 @@
       <c r="O218" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P218" s="0" t="s">
+        <v>686</v>
+      </c>
       <c r="Y218" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -14243,13 +14894,13 @@
         <v>60</v>
       </c>
       <c r="G219" s="0" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="H219" s="0" t="s">
         <v>687</v>
       </c>
       <c r="K219" s="0" t="n">
-        <v>6.5e3</v>
+        <v>650.0</v>
       </c>
       <c r="L219" s="0" t="n">
         <v>10</v>
@@ -14263,6 +14914,9 @@
       <c r="O219" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="P219" s="0" t="s">
+        <v>687</v>
+      </c>
       <c r="Y219" s="0" t="n">
         <v>0.5</v>
       </c>
@@ -14293,13 +14947,13 @@
         <v>60</v>
       </c>
       <c r="G220" s="0" t="s">
-        <v>155</v>
+        <v>607</v>
       </c>
       <c r="H220" s="0" t="s">
         <v>684</v>
       </c>
       <c r="K220" s="0" t="n">
-        <v>6.5e3</v>
+        <v>650.0</v>
       </c>
       <c r="L220" s="0" t="n">
         <v>10</v>
@@ -14312,6 +14966,9 @@
       </c>
       <c r="O220" s="0" t="s">
         <v>52</v>
+      </c>
+      <c r="P220" s="0" t="s">
+        <v>684</v>
       </c>
       <c r="Y220" s="0" t="n">
         <v>0.5</v>
